--- a/Analysis/DWR dataset.xlsx
+++ b/Analysis/DWR dataset.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\armen\Desktop\Drought Indicators - SoCal\Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DE74F6C-B3C5-4965-9F29-A377EBB5D22B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43106D4C-7097-4D90-A049-1CDEF54968F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28635" yWindow="-165" windowWidth="29130" windowHeight="15810" activeTab="5" xr2:uid="{3AC0043D-D22B-384A-9C5D-258A6195F46F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{3AC0043D-D22B-384A-9C5D-258A6195F46F}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="2" r:id="rId1"/>
@@ -21,14 +21,9 @@
     <sheet name="Variables to predict supply" sheetId="22" r:id="rId6"/>
     <sheet name="Old Estimated" sheetId="26" r:id="rId7"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId8"/>
-    <externalReference r:id="rId9"/>
-    <externalReference r:id="rId10"/>
-  </externalReferences>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId11"/>
+    <pivotCache cacheId="0" r:id="rId8"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -50,7 +45,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -72,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="84">
   <si>
     <t>Year</t>
   </si>
@@ -316,6 +311,15 @@
   <si>
     <t>Number of Variables</t>
   </si>
+  <si>
+    <t>Alternative</t>
+  </si>
+  <si>
+    <t>Note</t>
+  </si>
+  <si>
+    <t>Log of deliveries used</t>
+  </si>
 </sst>
 </file>
 
@@ -535,7 +539,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -577,6 +581,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -586,37 +612,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2156,7 +2172,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[supply portfolios with colorado.xlsx]Main!PivotTable1</c:name>
+    <c:name>[DWR dataset.xlsx]Main!PivotTable1</c:name>
     <c:fmtId val="4"/>
   </c:pivotSource>
   <c:chart>
@@ -9434,7 +9450,17 @@
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.11792441704247787"/>
+          <c:y val="4.0404040404040407E-2"/>
+          <c:w val="0.84411800556949979"/>
+          <c:h val="0.79649841290499845"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
@@ -9531,58 +9557,58 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>4677.1798140294695</c:v>
+                  <c:v>4509.5832259262224</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4350.3660931599361</c:v>
+                  <c:v>4317.2602289771094</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4371.2209314029797</c:v>
+                  <c:v>4353.0533022053842</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4134.8473181546287</c:v>
+                  <c:v>4259.8032088719374</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4229.5431291146688</c:v>
+                  <c:v>4265.7772631839671</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4808.2604640078125</c:v>
+                  <c:v>4591.3611642652104</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4059.7962792456487</c:v>
+                  <c:v>3802.0333477832783</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4062.1588178951924</c:v>
+                  <c:v>3955.7469546116099</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3412.7991595104781</c:v>
+                  <c:v>3700.6872598146974</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3491.6168087955775</c:v>
+                  <c:v>3639.8151406754632</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3852.9049019607983</c:v>
+                  <c:v>3700.459471114229</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4183.4995573456818</c:v>
+                  <c:v>4012.7107077737032</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4501.203044498594</c:v>
+                  <c:v>4238.9973055195678</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3638.9462806989982</c:v>
+                  <c:v>4044.3411417201205</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3534.8821865877012</c:v>
+                  <c:v>3894.5515541090399</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3832.3410011684928</c:v>
+                  <c:v>3763.0404984923052</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3504.9903721994815</c:v>
+                  <c:v>3640.5964355833257</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3685.5438402238169</c:v>
+                  <c:v>3642.2817893727838</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10473,58 +10499,58 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="54"/>
                 <c:pt idx="0">
-                  <c:v>1749.0462848769303</c:v>
+                  <c:v>1716.4334476389881</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1554.5474245844464</c:v>
+                  <c:v>1495.3477586044467</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1605.3645841582415</c:v>
+                  <c:v>1598.785708395257</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1349.2581465860865</c:v>
+                  <c:v>1379.3710498911464</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1449.6143632626131</c:v>
+                  <c:v>1436.0742778745366</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1818.5900345213984</c:v>
+                  <c:v>1867.3336554573864</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1742.5380486732936</c:v>
+                  <c:v>1536.2818368944984</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1695.7925395300172</c:v>
+                  <c:v>1598.3144264095672</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1303.1128720852726</c:v>
+                  <c:v>1412.133378048276</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1345.6593727370139</c:v>
+                  <c:v>1393.5363480182486</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1658.264469622997</c:v>
+                  <c:v>1547.8947954245805</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1797.8058111335558</c:v>
+                  <c:v>1837.8973577154559</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1913.6584939456261</c:v>
+                  <c:v>1897.6209851528788</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1450.2939865736346</c:v>
+                  <c:v>1635.9439813347828</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>1424.1330338746106</c:v>
+                  <c:v>1616.2630694875297</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>1619.1916970203386</c:v>
+                  <c:v>1558.4587440893811</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>1358.6620069180744</c:v>
+                  <c:v>1392.5894089218107</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>1505.7668298958388</c:v>
+                  <c:v>1421.0197706412171</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10785,58 +10811,58 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="54"/>
                 <c:pt idx="0">
-                  <c:v>1142.3482696273682</c:v>
+                  <c:v>1028.14713879792</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>946.46291366323021</c:v>
+                  <c:v>976.31955730309369</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1014.8882686194825</c:v>
+                  <c:v>969.52398367193041</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>798.78225488250951</c:v>
+                  <c:v>889.0776867781201</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>781.65782103417746</c:v>
+                  <c:v>812.31673660451281</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1216.0045286353475</c:v>
+                  <c:v>983.25453699482807</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1154.7247747013685</c:v>
+                  <c:v>1215.8385713100911</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1267.2526456698665</c:v>
+                  <c:v>1307.3353940657976</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>926.09567727875628</c:v>
+                  <c:v>1028.14713879792</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>757.02140269206177</c:v>
+                  <c:v>819.79406774811514</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>961.6943725265894</c:v>
+                  <c:v>946.76078316846395</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1279.9145088009539</c:v>
+                  <c:v>1096.6550207866449</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1648.5034551788337</c:v>
+                  <c:v>1532.6508640549739</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1589.5159945841101</c:v>
+                  <c:v>1702.3922866444746</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>1260.2921376328095</c:v>
+                  <c:v>1280.9790600918675</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>1000.4626271000648</c:v>
+                  <c:v>988.55075609473397</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>802.29449394925211</c:v>
+                  <c:v>881.21527648156109</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>912.28385342321667</c:v>
+                  <c:v>1001.2411406049484</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10941,58 +10967,58 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="54"/>
                 <c:pt idx="0">
-                  <c:v>1593.8016967556446</c:v>
+                  <c:v>1573.0190767197876</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1601.0668585104715</c:v>
+                  <c:v>1597.3040166677811</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1566.7126989032943</c:v>
+                  <c:v>1600.4882304162356</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1633.6355360672883</c:v>
+                  <c:v>1638.1830915839259</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1655.0357995460026</c:v>
+                  <c:v>1674.1511034330429</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1626.9474102172796</c:v>
+                  <c:v>1594.0544811792086</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1018.0230175365045</c:v>
+                  <c:v>905.40250124420629</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>911.54617452439118</c:v>
+                  <c:v>862.52967596532756</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>916.53326920057452</c:v>
+                  <c:v>993.34940202262635</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1053.4290711421918</c:v>
+                  <c:v>1090.9777626847892</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1058.6269154361207</c:v>
+                  <c:v>1031.4847481460931</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>988.86945281799353</c:v>
+                  <c:v>961.24854467842454</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>887.26885361043469</c:v>
+                  <c:v>756.95321454801592</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>570.54860692025022</c:v>
+                  <c:v>677.41718111985926</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>728.02709973884214</c:v>
+                  <c:v>874.87950918820411</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>1008.5588266323894</c:v>
+                  <c:v>1011.9031478924898</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>1039.4396412981057</c:v>
+                  <c:v>1062.1975201459047</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>1053.4290711421918</c:v>
+                  <c:v>1005.9567923640484</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -26239,50 +26265,6 @@
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>162331</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>193912</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{009BDD2E-B3AC-462F-48F0-CA002156CA8B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8667750" y="6600825"/>
-          <a:ext cx="9077731" cy="4194412"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
@@ -26313,7 +26295,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -26361,5672 +26343,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="2 var"/>
-      <sheetName val="DWR portfolio"/>
-      <sheetName val="Colorado WY"/>
-      <sheetName val="Colorado CY"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="indicators-annual-calendar year"/>
-      <sheetName val="indicators-annual-water year"/>
-      <sheetName val="indicators-monthly"/>
-      <sheetName val="indicators colorado - monthly"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2">
-        <row r="1">
-          <cell r="C1" t="str">
-            <v>SWDI-SC</v>
-          </cell>
-          <cell r="D1" t="str">
-            <v>SWDI-SL</v>
-          </cell>
-          <cell r="E1" t="str">
-            <v>SWDI-delta</v>
-          </cell>
-        </row>
-        <row r="2">
-          <cell r="B2">
-            <v>33269</v>
-          </cell>
-          <cell r="C2">
-            <v>3.3333333333333298E-2</v>
-          </cell>
-          <cell r="D2">
-            <v>3.3333333333333298E-2</v>
-          </cell>
-          <cell r="E2">
-            <v>3.3333333333333298E-2</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="B3">
-            <v>33297</v>
-          </cell>
-          <cell r="C3">
-            <v>3.3333333333333298E-2</v>
-          </cell>
-          <cell r="D3">
-            <v>3.3333333333333298E-2</v>
-          </cell>
-          <cell r="E3">
-            <v>3.3333333333333298E-2</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="B4">
-            <v>33328</v>
-          </cell>
-          <cell r="C4">
-            <v>3.3333333333333298E-2</v>
-          </cell>
-          <cell r="D4">
-            <v>0.3</v>
-          </cell>
-          <cell r="E4">
-            <v>3.3333333333333298E-2</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="B5">
-            <v>33358</v>
-          </cell>
-          <cell r="C5">
-            <v>0.1</v>
-          </cell>
-          <cell r="D5">
-            <v>0.53333333333333299</v>
-          </cell>
-          <cell r="E5">
-            <v>0.1</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="B6">
-            <v>33389</v>
-          </cell>
-          <cell r="C6">
-            <v>6.6666666666666596E-2</v>
-          </cell>
-          <cell r="D6">
-            <v>0.63333333333333297</v>
-          </cell>
-          <cell r="E6">
-            <v>0.133333333333333</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="B7">
-            <v>33419</v>
-          </cell>
-          <cell r="C7">
-            <v>6.6666666666666596E-2</v>
-          </cell>
-          <cell r="D7">
-            <v>0.233333333333333</v>
-          </cell>
-          <cell r="E7">
-            <v>0.1</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="B8">
-            <v>33450</v>
-          </cell>
-          <cell r="C8">
-            <v>6.6666666666666596E-2</v>
-          </cell>
-          <cell r="D8">
-            <v>6.6666666666666596E-2</v>
-          </cell>
-          <cell r="E8">
-            <v>0.133333333333333</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="B9">
-            <v>33481</v>
-          </cell>
-          <cell r="C9">
-            <v>0.133333333333333</v>
-          </cell>
-          <cell r="D9">
-            <v>0.133333333333333</v>
-          </cell>
-          <cell r="E9">
-            <v>0.133333333333333</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="B10">
-            <v>33511</v>
-          </cell>
-          <cell r="C10">
-            <v>0.16666666666666599</v>
-          </cell>
-          <cell r="D10">
-            <v>0.16666666666666599</v>
-          </cell>
-          <cell r="E10">
-            <v>0.133333333333333</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="B11">
-            <v>33542</v>
-          </cell>
-          <cell r="C11">
-            <v>0.16666666666666599</v>
-          </cell>
-          <cell r="D11">
-            <v>0.2</v>
-          </cell>
-          <cell r="E11">
-            <v>0.133333333333333</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="B12">
-            <v>33572</v>
-          </cell>
-          <cell r="C12">
-            <v>0.133333333333333</v>
-          </cell>
-          <cell r="D12">
-            <v>0.33333333333333298</v>
-          </cell>
-          <cell r="E12">
-            <v>0.16666666666666599</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="B13">
-            <v>33603</v>
-          </cell>
-          <cell r="C13">
-            <v>0.1</v>
-          </cell>
-          <cell r="D13">
-            <v>0.36666666666666597</v>
-          </cell>
-          <cell r="E13">
-            <v>0.133333333333333</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="B14">
-            <v>33634</v>
-          </cell>
-          <cell r="C14">
-            <v>0.133333333333333</v>
-          </cell>
-          <cell r="D14">
-            <v>0.2</v>
-          </cell>
-          <cell r="E14">
-            <v>0.1</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="B15">
-            <v>33663</v>
-          </cell>
-          <cell r="C15">
-            <v>6.6666666666666596E-2</v>
-          </cell>
-          <cell r="D15">
-            <v>0.233333333333333</v>
-          </cell>
-          <cell r="E15">
-            <v>0.133333333333333</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="B16">
-            <v>33694</v>
-          </cell>
-          <cell r="C16">
-            <v>0.133333333333333</v>
-          </cell>
-          <cell r="D16">
-            <v>0.33333333333333298</v>
-          </cell>
-          <cell r="E16">
-            <v>0.133333333333333</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="B17">
-            <v>33724</v>
-          </cell>
-          <cell r="C17">
-            <v>0.16666666666666599</v>
-          </cell>
-          <cell r="D17">
-            <v>0.33333333333333298</v>
-          </cell>
-          <cell r="E17">
-            <v>0.133333333333333</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="B18">
-            <v>33755</v>
-          </cell>
-          <cell r="C18">
-            <v>0.133333333333333</v>
-          </cell>
-          <cell r="D18">
-            <v>6.6666666666666596E-2</v>
-          </cell>
-          <cell r="E18">
-            <v>0.1</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="B19">
-            <v>33785</v>
-          </cell>
-          <cell r="C19">
-            <v>0.133333333333333</v>
-          </cell>
-          <cell r="D19">
-            <v>0.1</v>
-          </cell>
-          <cell r="E19">
-            <v>0.133333333333333</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="B20">
-            <v>33816</v>
-          </cell>
-          <cell r="C20">
-            <v>0.16666666666666599</v>
-          </cell>
-          <cell r="D20">
-            <v>0.1</v>
-          </cell>
-          <cell r="E20">
-            <v>0.1</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="B21">
-            <v>33847</v>
-          </cell>
-          <cell r="C21">
-            <v>0.16666666666666599</v>
-          </cell>
-          <cell r="D21">
-            <v>3.3333333333333298E-2</v>
-          </cell>
-          <cell r="E21">
-            <v>0.1</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="B22">
-            <v>33877</v>
-          </cell>
-          <cell r="C22">
-            <v>0.133333333333333</v>
-          </cell>
-          <cell r="D22">
-            <v>3.3333333333333298E-2</v>
-          </cell>
-          <cell r="E22">
-            <v>6.6666666666666596E-2</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="B23">
-            <v>33908</v>
-          </cell>
-          <cell r="C23">
-            <v>0.133333333333333</v>
-          </cell>
-          <cell r="D23">
-            <v>0.133333333333333</v>
-          </cell>
-          <cell r="E23">
-            <v>6.6666666666666596E-2</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="B24">
-            <v>33938</v>
-          </cell>
-          <cell r="C24">
-            <v>0.16666666666666599</v>
-          </cell>
-          <cell r="D24">
-            <v>0.6</v>
-          </cell>
-          <cell r="E24">
-            <v>3.3333333333333298E-2</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="B25">
-            <v>33969</v>
-          </cell>
-          <cell r="C25">
-            <v>3.3333333333333298E-2</v>
-          </cell>
-          <cell r="D25">
-            <v>0.56666666666666599</v>
-          </cell>
-          <cell r="E25">
-            <v>0.1</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="B26">
-            <v>34000</v>
-          </cell>
-          <cell r="C26">
-            <v>6.6666666666666596E-2</v>
-          </cell>
-          <cell r="D26">
-            <v>0.83333333333333304</v>
-          </cell>
-          <cell r="E26">
-            <v>0.266666666666666</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="B27">
-            <v>34028</v>
-          </cell>
-          <cell r="C27">
-            <v>0.5</v>
-          </cell>
-          <cell r="D27">
-            <v>0.9</v>
-          </cell>
-          <cell r="E27">
-            <v>0.6</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="B28">
-            <v>34059</v>
-          </cell>
-          <cell r="C28">
-            <v>0.56666666666666599</v>
-          </cell>
-          <cell r="D28">
-            <v>0.86666666666666603</v>
-          </cell>
-          <cell r="E28">
-            <v>0.63333333333333297</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="B29">
-            <v>34089</v>
-          </cell>
-          <cell r="C29">
-            <v>0.5</v>
-          </cell>
-          <cell r="D29">
-            <v>0.8</v>
-          </cell>
-          <cell r="E29">
-            <v>0.73333333333333295</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="B30">
-            <v>34120</v>
-          </cell>
-          <cell r="C30">
-            <v>0.5</v>
-          </cell>
-          <cell r="D30">
-            <v>0.76666666666666605</v>
-          </cell>
-          <cell r="E30">
-            <v>0.63333333333333297</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="B31">
-            <v>34150</v>
-          </cell>
-          <cell r="C31">
-            <v>0.5</v>
-          </cell>
-          <cell r="D31">
-            <v>0.73333333333333295</v>
-          </cell>
-          <cell r="E31">
-            <v>0.63333333333333297</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="B32">
-            <v>34181</v>
-          </cell>
-          <cell r="C32">
-            <v>0.53333333333333299</v>
-          </cell>
-          <cell r="D32">
-            <v>0.3</v>
-          </cell>
-          <cell r="E32">
-            <v>0.7</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="B33">
-            <v>34212</v>
-          </cell>
-          <cell r="C33">
-            <v>0.43333333333333302</v>
-          </cell>
-          <cell r="D33">
-            <v>0.43333333333333302</v>
-          </cell>
-          <cell r="E33">
-            <v>0.7</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="B34">
-            <v>34242</v>
-          </cell>
-          <cell r="C34">
-            <v>0.4</v>
-          </cell>
-          <cell r="D34">
-            <v>0.43333333333333302</v>
-          </cell>
-          <cell r="E34">
-            <v>0.7</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="B35">
-            <v>34273</v>
-          </cell>
-          <cell r="C35">
-            <v>0.4</v>
-          </cell>
-          <cell r="D35">
-            <v>0.36666666666666597</v>
-          </cell>
-          <cell r="E35">
-            <v>0.7</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="B36">
-            <v>34303</v>
-          </cell>
-          <cell r="C36">
-            <v>0.33333333333333298</v>
-          </cell>
-          <cell r="D36">
-            <v>0.2</v>
-          </cell>
-          <cell r="E36">
-            <v>0.66666666666666596</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="B37">
-            <v>34334</v>
-          </cell>
-          <cell r="C37">
-            <v>0.3</v>
-          </cell>
-          <cell r="D37">
-            <v>0.33333333333333298</v>
-          </cell>
-          <cell r="E37">
-            <v>0.63333333333333297</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="B38">
-            <v>34365</v>
-          </cell>
-          <cell r="C38">
-            <v>0.33333333333333298</v>
-          </cell>
-          <cell r="D38">
-            <v>0.1</v>
-          </cell>
-          <cell r="E38">
-            <v>0.36666666666666597</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="B39">
-            <v>34393</v>
-          </cell>
-          <cell r="C39">
-            <v>0.266666666666666</v>
-          </cell>
-          <cell r="D39">
-            <v>0.16666666666666599</v>
-          </cell>
-          <cell r="E39">
-            <v>0.266666666666666</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="B40">
-            <v>34424</v>
-          </cell>
-          <cell r="C40">
-            <v>0.266666666666666</v>
-          </cell>
-          <cell r="D40">
-            <v>0.233333333333333</v>
-          </cell>
-          <cell r="E40">
-            <v>0.33333333333333298</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="B41">
-            <v>34454</v>
-          </cell>
-          <cell r="C41">
-            <v>0.266666666666666</v>
-          </cell>
-          <cell r="D41">
-            <v>0.2</v>
-          </cell>
-          <cell r="E41">
-            <v>0.16666666666666599</v>
-          </cell>
-        </row>
-        <row r="42">
-          <cell r="B42">
-            <v>34485</v>
-          </cell>
-          <cell r="C42">
-            <v>0.233333333333333</v>
-          </cell>
-          <cell r="D42">
-            <v>0.2</v>
-          </cell>
-          <cell r="E42">
-            <v>0.233333333333333</v>
-          </cell>
-        </row>
-        <row r="43">
-          <cell r="B43">
-            <v>34515</v>
-          </cell>
-          <cell r="C43">
-            <v>0.266666666666666</v>
-          </cell>
-          <cell r="D43">
-            <v>0.133333333333333</v>
-          </cell>
-          <cell r="E43">
-            <v>0.2</v>
-          </cell>
-        </row>
-        <row r="44">
-          <cell r="B44">
-            <v>34546</v>
-          </cell>
-          <cell r="C44">
-            <v>0.266666666666666</v>
-          </cell>
-          <cell r="D44">
-            <v>0.2</v>
-          </cell>
-          <cell r="E44">
-            <v>0.2</v>
-          </cell>
-        </row>
-        <row r="45">
-          <cell r="B45">
-            <v>34577</v>
-          </cell>
-          <cell r="C45">
-            <v>0.266666666666666</v>
-          </cell>
-          <cell r="D45">
-            <v>0.2</v>
-          </cell>
-          <cell r="E45">
-            <v>0.2</v>
-          </cell>
-        </row>
-        <row r="46">
-          <cell r="B46">
-            <v>34607</v>
-          </cell>
-          <cell r="C46">
-            <v>0.266666666666666</v>
-          </cell>
-          <cell r="D46">
-            <v>0.3</v>
-          </cell>
-          <cell r="E46">
-            <v>0.2</v>
-          </cell>
-        </row>
-        <row r="47">
-          <cell r="B47">
-            <v>34638</v>
-          </cell>
-          <cell r="C47">
-            <v>0.2</v>
-          </cell>
-          <cell r="D47">
-            <v>0.6</v>
-          </cell>
-          <cell r="E47">
-            <v>0.2</v>
-          </cell>
-        </row>
-        <row r="48">
-          <cell r="B48">
-            <v>34668</v>
-          </cell>
-          <cell r="C48">
-            <v>0.2</v>
-          </cell>
-          <cell r="D48">
-            <v>0.8</v>
-          </cell>
-          <cell r="E48">
-            <v>0.233333333333333</v>
-          </cell>
-        </row>
-        <row r="49">
-          <cell r="B49">
-            <v>34699</v>
-          </cell>
-          <cell r="C49">
-            <v>0.2</v>
-          </cell>
-          <cell r="D49">
-            <v>0.7</v>
-          </cell>
-          <cell r="E49">
-            <v>0.33333333333333298</v>
-          </cell>
-        </row>
-        <row r="50">
-          <cell r="B50">
-            <v>34730</v>
-          </cell>
-          <cell r="C50">
-            <v>0.1</v>
-          </cell>
-          <cell r="D50">
-            <v>0.8</v>
-          </cell>
-          <cell r="E50">
-            <v>0.5</v>
-          </cell>
-        </row>
-        <row r="51">
-          <cell r="B51">
-            <v>34758</v>
-          </cell>
-          <cell r="C51">
-            <v>0.3</v>
-          </cell>
-          <cell r="D51">
-            <v>0.8</v>
-          </cell>
-          <cell r="E51">
-            <v>0.9</v>
-          </cell>
-        </row>
-        <row r="52">
-          <cell r="B52">
-            <v>34789</v>
-          </cell>
-          <cell r="C52">
-            <v>0.3</v>
-          </cell>
-          <cell r="D52">
-            <v>0.83333333333333304</v>
-          </cell>
-          <cell r="E52">
-            <v>0.86666666666666603</v>
-          </cell>
-        </row>
-        <row r="53">
-          <cell r="B53">
-            <v>34819</v>
-          </cell>
-          <cell r="C53">
-            <v>0.46666666666666601</v>
-          </cell>
-          <cell r="D53">
-            <v>0.96666666666666601</v>
-          </cell>
-          <cell r="E53">
-            <v>0.93333333333333302</v>
-          </cell>
-        </row>
-        <row r="54">
-          <cell r="B54">
-            <v>34850</v>
-          </cell>
-          <cell r="C54">
-            <v>0.46666666666666601</v>
-          </cell>
-          <cell r="D54">
-            <v>1</v>
-          </cell>
-          <cell r="E54">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="55">
-          <cell r="B55">
-            <v>34880</v>
-          </cell>
-          <cell r="C55">
-            <v>0.46666666666666601</v>
-          </cell>
-          <cell r="D55">
-            <v>1</v>
-          </cell>
-          <cell r="E55">
-            <v>0.96666666666666601</v>
-          </cell>
-        </row>
-        <row r="56">
-          <cell r="B56">
-            <v>34911</v>
-          </cell>
-          <cell r="C56">
-            <v>0.5</v>
-          </cell>
-          <cell r="D56">
-            <v>1</v>
-          </cell>
-          <cell r="E56">
-            <v>0.96666666666666601</v>
-          </cell>
-        </row>
-        <row r="57">
-          <cell r="B57">
-            <v>34942</v>
-          </cell>
-          <cell r="C57">
-            <v>0.46666666666666601</v>
-          </cell>
-          <cell r="D57">
-            <v>0.96666666666666601</v>
-          </cell>
-          <cell r="E57">
-            <v>0.93333333333333302</v>
-          </cell>
-        </row>
-        <row r="58">
-          <cell r="B58">
-            <v>34972</v>
-          </cell>
-          <cell r="C58">
-            <v>0.46666666666666601</v>
-          </cell>
-          <cell r="D58">
-            <v>1</v>
-          </cell>
-          <cell r="E58">
-            <v>0.93333333333333302</v>
-          </cell>
-        </row>
-        <row r="59">
-          <cell r="B59">
-            <v>35003</v>
-          </cell>
-          <cell r="C59">
-            <v>0.46666666666666601</v>
-          </cell>
-          <cell r="D59">
-            <v>0.9</v>
-          </cell>
-          <cell r="E59">
-            <v>0.93333333333333302</v>
-          </cell>
-        </row>
-        <row r="60">
-          <cell r="B60">
-            <v>35033</v>
-          </cell>
-          <cell r="C60">
-            <v>0.43333333333333302</v>
-          </cell>
-          <cell r="D60">
-            <v>0.46666666666666601</v>
-          </cell>
-          <cell r="E60">
-            <v>0.93333333333333302</v>
-          </cell>
-        </row>
-        <row r="61">
-          <cell r="B61">
-            <v>35064</v>
-          </cell>
-          <cell r="C61">
-            <v>0.36666666666666597</v>
-          </cell>
-          <cell r="D61">
-            <v>0.43333333333333302</v>
-          </cell>
-          <cell r="E61">
-            <v>0.8</v>
-          </cell>
-        </row>
-        <row r="62">
-          <cell r="B62">
-            <v>35095</v>
-          </cell>
-          <cell r="C62">
-            <v>0.36666666666666597</v>
-          </cell>
-          <cell r="D62">
-            <v>0.46666666666666601</v>
-          </cell>
-          <cell r="E62">
-            <v>0.7</v>
-          </cell>
-        </row>
-        <row r="63">
-          <cell r="B63">
-            <v>35124</v>
-          </cell>
-          <cell r="C63">
-            <v>0.233333333333333</v>
-          </cell>
-          <cell r="D63">
-            <v>0.6</v>
-          </cell>
-          <cell r="E63">
-            <v>0.73333333333333295</v>
-          </cell>
-        </row>
-        <row r="64">
-          <cell r="B64">
-            <v>35155</v>
-          </cell>
-          <cell r="C64">
-            <v>0.33333333333333298</v>
-          </cell>
-          <cell r="D64">
-            <v>0.66666666666666596</v>
-          </cell>
-          <cell r="E64">
-            <v>0.76666666666666605</v>
-          </cell>
-        </row>
-        <row r="65">
-          <cell r="B65">
-            <v>35185</v>
-          </cell>
-          <cell r="C65">
-            <v>0.3</v>
-          </cell>
-          <cell r="D65">
-            <v>0.7</v>
-          </cell>
-          <cell r="E65">
-            <v>0.7</v>
-          </cell>
-        </row>
-        <row r="66">
-          <cell r="B66">
-            <v>35216</v>
-          </cell>
-          <cell r="C66">
-            <v>0.36666666666666597</v>
-          </cell>
-          <cell r="D66">
-            <v>0.6</v>
-          </cell>
-          <cell r="E66">
-            <v>0.66666666666666596</v>
-          </cell>
-        </row>
-        <row r="67">
-          <cell r="B67">
-            <v>35246</v>
-          </cell>
-          <cell r="C67">
-            <v>0.33333333333333298</v>
-          </cell>
-          <cell r="D67">
-            <v>0.63333333333333297</v>
-          </cell>
-          <cell r="E67">
-            <v>0.76666666666666605</v>
-          </cell>
-        </row>
-        <row r="68">
-          <cell r="B68">
-            <v>35277</v>
-          </cell>
-          <cell r="C68">
-            <v>0.3</v>
-          </cell>
-          <cell r="D68">
-            <v>0.5</v>
-          </cell>
-          <cell r="E68">
-            <v>0.76666666666666605</v>
-          </cell>
-        </row>
-        <row r="69">
-          <cell r="B69">
-            <v>35308</v>
-          </cell>
-          <cell r="C69">
-            <v>0.233333333333333</v>
-          </cell>
-          <cell r="D69">
-            <v>0.6</v>
-          </cell>
-          <cell r="E69">
-            <v>0.76666666666666605</v>
-          </cell>
-        </row>
-        <row r="70">
-          <cell r="B70">
-            <v>35338</v>
-          </cell>
-          <cell r="C70">
-            <v>0.233333333333333</v>
-          </cell>
-          <cell r="D70">
-            <v>0.63333333333333297</v>
-          </cell>
-          <cell r="E70">
-            <v>0.76666666666666605</v>
-          </cell>
-        </row>
-        <row r="71">
-          <cell r="B71">
-            <v>35369</v>
-          </cell>
-          <cell r="C71">
-            <v>0.266666666666666</v>
-          </cell>
-          <cell r="D71">
-            <v>0.56666666666666599</v>
-          </cell>
-          <cell r="E71">
-            <v>0.76666666666666605</v>
-          </cell>
-        </row>
-        <row r="72">
-          <cell r="B72">
-            <v>35399</v>
-          </cell>
-          <cell r="C72">
-            <v>0.266666666666666</v>
-          </cell>
-          <cell r="D72">
-            <v>0.93333333333333302</v>
-          </cell>
-          <cell r="E72">
-            <v>0.83333333333333304</v>
-          </cell>
-        </row>
-        <row r="73">
-          <cell r="B73">
-            <v>35430</v>
-          </cell>
-          <cell r="C73">
-            <v>0.266666666666666</v>
-          </cell>
-          <cell r="D73">
-            <v>0.96666666666666601</v>
-          </cell>
-          <cell r="E73">
-            <v>0.96666666666666601</v>
-          </cell>
-        </row>
-        <row r="74">
-          <cell r="B74">
-            <v>35461</v>
-          </cell>
-          <cell r="C74">
-            <v>0.3</v>
-          </cell>
-          <cell r="D74">
-            <v>0.93333333333333302</v>
-          </cell>
-          <cell r="E74">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="75">
-          <cell r="B75">
-            <v>35489</v>
-          </cell>
-          <cell r="C75">
-            <v>0.33333333333333298</v>
-          </cell>
-          <cell r="D75">
-            <v>0.93333333333333302</v>
-          </cell>
-          <cell r="E75">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="76">
-          <cell r="B76">
-            <v>35520</v>
-          </cell>
-          <cell r="C76">
-            <v>0.2</v>
-          </cell>
-          <cell r="D76">
-            <v>0.73333333333333295</v>
-          </cell>
-          <cell r="E76">
-            <v>0.7</v>
-          </cell>
-        </row>
-        <row r="77">
-          <cell r="B77">
-            <v>35550</v>
-          </cell>
-          <cell r="C77">
-            <v>0.133333333333333</v>
-          </cell>
-          <cell r="D77">
-            <v>0.66666666666666596</v>
-          </cell>
-          <cell r="E77">
-            <v>0.6</v>
-          </cell>
-        </row>
-        <row r="78">
-          <cell r="B78">
-            <v>35581</v>
-          </cell>
-          <cell r="C78">
-            <v>0.16666666666666599</v>
-          </cell>
-          <cell r="D78">
-            <v>0.5</v>
-          </cell>
-          <cell r="E78">
-            <v>0.5</v>
-          </cell>
-        </row>
-        <row r="79">
-          <cell r="B79">
-            <v>35611</v>
-          </cell>
-          <cell r="C79">
-            <v>0.16666666666666599</v>
-          </cell>
-          <cell r="D79">
-            <v>0.5</v>
-          </cell>
-          <cell r="E79">
-            <v>0.5</v>
-          </cell>
-        </row>
-        <row r="80">
-          <cell r="B80">
-            <v>35642</v>
-          </cell>
-          <cell r="C80">
-            <v>0.133333333333333</v>
-          </cell>
-          <cell r="D80">
-            <v>0.73333333333333295</v>
-          </cell>
-          <cell r="E80">
-            <v>0.53333333333333299</v>
-          </cell>
-        </row>
-        <row r="81">
-          <cell r="B81">
-            <v>35673</v>
-          </cell>
-          <cell r="C81">
-            <v>0.1</v>
-          </cell>
-          <cell r="D81">
-            <v>0.7</v>
-          </cell>
-          <cell r="E81">
-            <v>0.53333333333333299</v>
-          </cell>
-        </row>
-        <row r="82">
-          <cell r="B82">
-            <v>35703</v>
-          </cell>
-          <cell r="C82">
-            <v>6.6666666666666596E-2</v>
-          </cell>
-          <cell r="D82">
-            <v>0.66666666666666596</v>
-          </cell>
-          <cell r="E82">
-            <v>0.53333333333333299</v>
-          </cell>
-        </row>
-        <row r="83">
-          <cell r="B83">
-            <v>35734</v>
-          </cell>
-          <cell r="C83">
-            <v>0.1</v>
-          </cell>
-          <cell r="D83">
-            <v>0.63333333333333297</v>
-          </cell>
-          <cell r="E83">
-            <v>0.53333333333333299</v>
-          </cell>
-        </row>
-        <row r="84">
-          <cell r="B84">
-            <v>35764</v>
-          </cell>
-          <cell r="C84">
-            <v>6.6666666666666596E-2</v>
-          </cell>
-          <cell r="D84">
-            <v>0.43333333333333302</v>
-          </cell>
-          <cell r="E84">
-            <v>0.56666666666666599</v>
-          </cell>
-        </row>
-        <row r="85">
-          <cell r="B85">
-            <v>35795</v>
-          </cell>
-          <cell r="C85">
-            <v>0.16666666666666599</v>
-          </cell>
-          <cell r="D85">
-            <v>0.76666666666666605</v>
-          </cell>
-          <cell r="E85">
-            <v>0.56666666666666599</v>
-          </cell>
-        </row>
-        <row r="86">
-          <cell r="B86">
-            <v>35826</v>
-          </cell>
-          <cell r="C86">
-            <v>0.233333333333333</v>
-          </cell>
-          <cell r="D86">
-            <v>0.56666666666666599</v>
-          </cell>
-          <cell r="E86">
-            <v>0.66666666666666596</v>
-          </cell>
-        </row>
-        <row r="87">
-          <cell r="B87">
-            <v>35854</v>
-          </cell>
-          <cell r="C87">
-            <v>0.16666666666666599</v>
-          </cell>
-          <cell r="D87">
-            <v>0.73333333333333295</v>
-          </cell>
-          <cell r="E87">
-            <v>0.93333333333333302</v>
-          </cell>
-        </row>
-        <row r="88">
-          <cell r="B88">
-            <v>35885</v>
-          </cell>
-          <cell r="C88">
-            <v>0.36666666666666597</v>
-          </cell>
-          <cell r="D88">
-            <v>0.76666666666666605</v>
-          </cell>
-          <cell r="E88">
-            <v>0.93333333333333302</v>
-          </cell>
-        </row>
-        <row r="89">
-          <cell r="B89">
-            <v>35915</v>
-          </cell>
-          <cell r="C89">
-            <v>0.36666666666666597</v>
-          </cell>
-          <cell r="D89">
-            <v>0.76666666666666605</v>
-          </cell>
-          <cell r="E89">
-            <v>0.86666666666666603</v>
-          </cell>
-        </row>
-        <row r="90">
-          <cell r="B90">
-            <v>35946</v>
-          </cell>
-          <cell r="C90">
-            <v>0.43333333333333302</v>
-          </cell>
-          <cell r="D90">
-            <v>0.9</v>
-          </cell>
-          <cell r="E90">
-            <v>0.96666666666666601</v>
-          </cell>
-        </row>
-        <row r="91">
-          <cell r="B91">
-            <v>35976</v>
-          </cell>
-          <cell r="C91">
-            <v>0.43333333333333302</v>
-          </cell>
-          <cell r="D91">
-            <v>0.93333333333333302</v>
-          </cell>
-          <cell r="E91">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="92">
-          <cell r="B92">
-            <v>36007</v>
-          </cell>
-          <cell r="C92">
-            <v>0.46666666666666601</v>
-          </cell>
-          <cell r="D92">
-            <v>0.93333333333333302</v>
-          </cell>
-          <cell r="E92">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="93">
-          <cell r="B93">
-            <v>36038</v>
-          </cell>
-          <cell r="C93">
-            <v>0.4</v>
-          </cell>
-          <cell r="D93">
-            <v>0.93333333333333302</v>
-          </cell>
-          <cell r="E93">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="94">
-          <cell r="B94">
-            <v>36068</v>
-          </cell>
-          <cell r="C94">
-            <v>0.43333333333333302</v>
-          </cell>
-          <cell r="D94">
-            <v>0.93333333333333302</v>
-          </cell>
-          <cell r="E94">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="95">
-          <cell r="B95">
-            <v>36099</v>
-          </cell>
-          <cell r="C95">
-            <v>0.43333333333333302</v>
-          </cell>
-          <cell r="D95">
-            <v>1</v>
-          </cell>
-          <cell r="E95">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="96">
-          <cell r="B96">
-            <v>36129</v>
-          </cell>
-          <cell r="C96">
-            <v>0.4</v>
-          </cell>
-          <cell r="D96">
-            <v>0.9</v>
-          </cell>
-          <cell r="E96">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="97">
-          <cell r="B97">
-            <v>36160</v>
-          </cell>
-          <cell r="C97">
-            <v>0.4</v>
-          </cell>
-          <cell r="D97">
-            <v>0.6</v>
-          </cell>
-          <cell r="E97">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="98">
-          <cell r="B98">
-            <v>36191</v>
-          </cell>
-          <cell r="C98">
-            <v>0.4</v>
-          </cell>
-          <cell r="D98">
-            <v>0.4</v>
-          </cell>
-          <cell r="E98">
-            <v>0.9</v>
-          </cell>
-        </row>
-        <row r="99">
-          <cell r="B99">
-            <v>36219</v>
-          </cell>
-          <cell r="C99">
-            <v>0.36666666666666597</v>
-          </cell>
-          <cell r="D99">
-            <v>0.5</v>
-          </cell>
-          <cell r="E99">
-            <v>0.86666666666666603</v>
-          </cell>
-        </row>
-        <row r="100">
-          <cell r="B100">
-            <v>36250</v>
-          </cell>
-          <cell r="C100">
-            <v>0.16666666666666599</v>
-          </cell>
-          <cell r="D100">
-            <v>0.46666666666666601</v>
-          </cell>
-          <cell r="E100">
-            <v>0.8</v>
-          </cell>
-        </row>
-        <row r="101">
-          <cell r="B101">
-            <v>36280</v>
-          </cell>
-          <cell r="C101">
-            <v>0.2</v>
-          </cell>
-          <cell r="D101">
-            <v>0.56666666666666599</v>
-          </cell>
-          <cell r="E101">
-            <v>0.76666666666666605</v>
-          </cell>
-        </row>
-        <row r="102">
-          <cell r="B102">
-            <v>36311</v>
-          </cell>
-          <cell r="C102">
-            <v>0.2</v>
-          </cell>
-          <cell r="D102">
-            <v>0.66666666666666596</v>
-          </cell>
-          <cell r="E102">
-            <v>0.76666666666666605</v>
-          </cell>
-        </row>
-        <row r="103">
-          <cell r="B103">
-            <v>36341</v>
-          </cell>
-          <cell r="C103">
-            <v>0.233333333333333</v>
-          </cell>
-          <cell r="D103">
-            <v>0.7</v>
-          </cell>
-          <cell r="E103">
-            <v>0.73333333333333295</v>
-          </cell>
-        </row>
-        <row r="104">
-          <cell r="B104">
-            <v>36372</v>
-          </cell>
-          <cell r="C104">
-            <v>0.2</v>
-          </cell>
-          <cell r="D104">
-            <v>0.83333333333333304</v>
-          </cell>
-          <cell r="E104">
-            <v>0.73333333333333295</v>
-          </cell>
-        </row>
-        <row r="105">
-          <cell r="B105">
-            <v>36403</v>
-          </cell>
-          <cell r="C105">
-            <v>0.2</v>
-          </cell>
-          <cell r="D105">
-            <v>0.63333333333333297</v>
-          </cell>
-          <cell r="E105">
-            <v>0.73333333333333295</v>
-          </cell>
-        </row>
-        <row r="106">
-          <cell r="B106">
-            <v>36433</v>
-          </cell>
-          <cell r="C106">
-            <v>0.2</v>
-          </cell>
-          <cell r="D106">
-            <v>0.6</v>
-          </cell>
-          <cell r="E106">
-            <v>0.73333333333333295</v>
-          </cell>
-        </row>
-        <row r="107">
-          <cell r="B107">
-            <v>36464</v>
-          </cell>
-          <cell r="C107">
-            <v>0.233333333333333</v>
-          </cell>
-          <cell r="D107">
-            <v>0.53333333333333299</v>
-          </cell>
-          <cell r="E107">
-            <v>0.73333333333333295</v>
-          </cell>
-        </row>
-        <row r="108">
-          <cell r="B108">
-            <v>36494</v>
-          </cell>
-          <cell r="C108">
-            <v>0.233333333333333</v>
-          </cell>
-          <cell r="D108">
-            <v>0.266666666666666</v>
-          </cell>
-          <cell r="E108">
-            <v>0.73333333333333295</v>
-          </cell>
-        </row>
-        <row r="109">
-          <cell r="B109">
-            <v>36525</v>
-          </cell>
-          <cell r="C109">
-            <v>0.233333333333333</v>
-          </cell>
-          <cell r="D109">
-            <v>3.3333333333333298E-2</v>
-          </cell>
-          <cell r="E109">
-            <v>0.66666666666666596</v>
-          </cell>
-        </row>
-        <row r="110">
-          <cell r="B110">
-            <v>36556</v>
-          </cell>
-          <cell r="C110">
-            <v>0.266666666666666</v>
-          </cell>
-          <cell r="D110">
-            <v>0.16666666666666599</v>
-          </cell>
-          <cell r="E110">
-            <v>0.43333333333333302</v>
-          </cell>
-        </row>
-        <row r="111">
-          <cell r="B111">
-            <v>36585</v>
-          </cell>
-          <cell r="C111">
-            <v>0.2</v>
-          </cell>
-          <cell r="D111">
-            <v>0.46666666666666601</v>
-          </cell>
-          <cell r="E111">
-            <v>0.63333333333333297</v>
-          </cell>
-        </row>
-        <row r="112">
-          <cell r="B112">
-            <v>36616</v>
-          </cell>
-          <cell r="C112">
-            <v>0.233333333333333</v>
-          </cell>
-          <cell r="D112">
-            <v>0.56666666666666599</v>
-          </cell>
-          <cell r="E112">
-            <v>0.73333333333333295</v>
-          </cell>
-        </row>
-        <row r="113">
-          <cell r="B113">
-            <v>36646</v>
-          </cell>
-          <cell r="C113">
-            <v>0.233333333333333</v>
-          </cell>
-          <cell r="D113">
-            <v>0.46666666666666601</v>
-          </cell>
-          <cell r="E113">
-            <v>0.63333333333333297</v>
-          </cell>
-        </row>
-        <row r="114">
-          <cell r="B114">
-            <v>36677</v>
-          </cell>
-          <cell r="C114">
-            <v>0.3</v>
-          </cell>
-          <cell r="D114">
-            <v>0.56666666666666599</v>
-          </cell>
-          <cell r="E114">
-            <v>0.6</v>
-          </cell>
-        </row>
-        <row r="115">
-          <cell r="B115">
-            <v>36707</v>
-          </cell>
-          <cell r="C115">
-            <v>0.36666666666666597</v>
-          </cell>
-          <cell r="D115">
-            <v>0.46666666666666601</v>
-          </cell>
-          <cell r="E115">
-            <v>0.7</v>
-          </cell>
-        </row>
-        <row r="116">
-          <cell r="B116">
-            <v>36738</v>
-          </cell>
-          <cell r="C116">
-            <v>0.4</v>
-          </cell>
-          <cell r="D116">
-            <v>0.7</v>
-          </cell>
-          <cell r="E116">
-            <v>0.63333333333333297</v>
-          </cell>
-        </row>
-        <row r="117">
-          <cell r="B117">
-            <v>36769</v>
-          </cell>
-          <cell r="C117">
-            <v>0.36666666666666597</v>
-          </cell>
-          <cell r="D117">
-            <v>0.46666666666666601</v>
-          </cell>
-          <cell r="E117">
-            <v>0.6</v>
-          </cell>
-        </row>
-        <row r="118">
-          <cell r="B118">
-            <v>36799</v>
-          </cell>
-          <cell r="C118">
-            <v>0.33333333333333298</v>
-          </cell>
-          <cell r="D118">
-            <v>0.46666666666666601</v>
-          </cell>
-          <cell r="E118">
-            <v>0.6</v>
-          </cell>
-        </row>
-        <row r="119">
-          <cell r="B119">
-            <v>36830</v>
-          </cell>
-          <cell r="C119">
-            <v>0.33333333333333298</v>
-          </cell>
-          <cell r="D119">
-            <v>0.7</v>
-          </cell>
-          <cell r="E119">
-            <v>0.66666666666666596</v>
-          </cell>
-        </row>
-        <row r="120">
-          <cell r="B120">
-            <v>36860</v>
-          </cell>
-          <cell r="C120">
-            <v>0.36666666666666597</v>
-          </cell>
-          <cell r="D120">
-            <v>0.73333333333333295</v>
-          </cell>
-          <cell r="E120">
-            <v>0.7</v>
-          </cell>
-        </row>
-        <row r="121">
-          <cell r="B121">
-            <v>36891</v>
-          </cell>
-          <cell r="C121">
-            <v>0.43333333333333302</v>
-          </cell>
-          <cell r="D121">
-            <v>0.16666666666666599</v>
-          </cell>
-          <cell r="E121">
-            <v>0.6</v>
-          </cell>
-        </row>
-        <row r="122">
-          <cell r="B122">
-            <v>36922</v>
-          </cell>
-          <cell r="C122">
-            <v>0.53333333333333299</v>
-          </cell>
-          <cell r="D122">
-            <v>0.266666666666666</v>
-          </cell>
-          <cell r="E122">
-            <v>0.4</v>
-          </cell>
-        </row>
-        <row r="123">
-          <cell r="B123">
-            <v>36950</v>
-          </cell>
-          <cell r="C123">
-            <v>0.46666666666666601</v>
-          </cell>
-          <cell r="D123">
-            <v>0.36666666666666597</v>
-          </cell>
-          <cell r="E123">
-            <v>0.3</v>
-          </cell>
-        </row>
-        <row r="124">
-          <cell r="B124">
-            <v>36981</v>
-          </cell>
-          <cell r="C124">
-            <v>0.5</v>
-          </cell>
-          <cell r="D124">
-            <v>0.5</v>
-          </cell>
-          <cell r="E124">
-            <v>0.43333333333333302</v>
-          </cell>
-        </row>
-        <row r="125">
-          <cell r="B125">
-            <v>37011</v>
-          </cell>
-          <cell r="C125">
-            <v>0.56666666666666599</v>
-          </cell>
-          <cell r="D125">
-            <v>0.5</v>
-          </cell>
-          <cell r="E125">
-            <v>0.43333333333333302</v>
-          </cell>
-        </row>
-        <row r="126">
-          <cell r="B126">
-            <v>37042</v>
-          </cell>
-          <cell r="C126">
-            <v>0.56666666666666599</v>
-          </cell>
-          <cell r="D126">
-            <v>0.53333333333333299</v>
-          </cell>
-          <cell r="E126">
-            <v>0.36666666666666597</v>
-          </cell>
-        </row>
-        <row r="127">
-          <cell r="B127">
-            <v>37072</v>
-          </cell>
-          <cell r="C127">
-            <v>0.63333333333333297</v>
-          </cell>
-          <cell r="D127">
-            <v>0.66666666666666596</v>
-          </cell>
-          <cell r="E127">
-            <v>0.36666666666666597</v>
-          </cell>
-        </row>
-        <row r="128">
-          <cell r="B128">
-            <v>37103</v>
-          </cell>
-          <cell r="C128">
-            <v>0.63333333333333297</v>
-          </cell>
-          <cell r="D128">
-            <v>0.8</v>
-          </cell>
-          <cell r="E128">
-            <v>0.33333333333333298</v>
-          </cell>
-        </row>
-        <row r="129">
-          <cell r="B129">
-            <v>37134</v>
-          </cell>
-          <cell r="C129">
-            <v>0.63333333333333297</v>
-          </cell>
-          <cell r="D129">
-            <v>0.53333333333333299</v>
-          </cell>
-          <cell r="E129">
-            <v>0.36666666666666597</v>
-          </cell>
-        </row>
-        <row r="130">
-          <cell r="B130">
-            <v>37164</v>
-          </cell>
-          <cell r="C130">
-            <v>0.66666666666666596</v>
-          </cell>
-          <cell r="D130">
-            <v>0.53333333333333299</v>
-          </cell>
-          <cell r="E130">
-            <v>0.36666666666666597</v>
-          </cell>
-        </row>
-        <row r="131">
-          <cell r="B131">
-            <v>37195</v>
-          </cell>
-          <cell r="C131">
-            <v>0.73333333333333295</v>
-          </cell>
-          <cell r="D131">
-            <v>0.5</v>
-          </cell>
-          <cell r="E131">
-            <v>0.36666666666666597</v>
-          </cell>
-        </row>
-        <row r="132">
-          <cell r="B132">
-            <v>37225</v>
-          </cell>
-          <cell r="C132">
-            <v>0.7</v>
-          </cell>
-          <cell r="D132">
-            <v>0.56666666666666599</v>
-          </cell>
-          <cell r="E132">
-            <v>0.33333333333333298</v>
-          </cell>
-        </row>
-        <row r="133">
-          <cell r="B133">
-            <v>37256</v>
-          </cell>
-          <cell r="C133">
-            <v>0.7</v>
-          </cell>
-          <cell r="D133">
-            <v>0.9</v>
-          </cell>
-          <cell r="E133">
-            <v>0.53333333333333299</v>
-          </cell>
-        </row>
-        <row r="134">
-          <cell r="B134">
-            <v>37287</v>
-          </cell>
-          <cell r="C134">
-            <v>0.66666666666666596</v>
-          </cell>
-          <cell r="D134">
-            <v>0.73333333333333295</v>
-          </cell>
-          <cell r="E134">
-            <v>0.56666666666666599</v>
-          </cell>
-        </row>
-        <row r="135">
-          <cell r="B135">
-            <v>37315</v>
-          </cell>
-          <cell r="C135">
-            <v>0.66666666666666596</v>
-          </cell>
-          <cell r="D135">
-            <v>0.53333333333333299</v>
-          </cell>
-          <cell r="E135">
-            <v>0.56666666666666599</v>
-          </cell>
-        </row>
-        <row r="136">
-          <cell r="B136">
-            <v>37346</v>
-          </cell>
-          <cell r="C136">
-            <v>0.7</v>
-          </cell>
-          <cell r="D136">
-            <v>0.43333333333333302</v>
-          </cell>
-          <cell r="E136">
-            <v>0.56666666666666599</v>
-          </cell>
-        </row>
-        <row r="137">
-          <cell r="B137">
-            <v>37376</v>
-          </cell>
-          <cell r="C137">
-            <v>0.63333333333333297</v>
-          </cell>
-          <cell r="D137">
-            <v>0.3</v>
-          </cell>
-          <cell r="E137">
-            <v>0.46666666666666601</v>
-          </cell>
-        </row>
-        <row r="138">
-          <cell r="B138">
-            <v>37407</v>
-          </cell>
-          <cell r="C138">
-            <v>0.63333333333333297</v>
-          </cell>
-          <cell r="D138">
-            <v>0.46666666666666601</v>
-          </cell>
-          <cell r="E138">
-            <v>0.46666666666666601</v>
-          </cell>
-        </row>
-        <row r="139">
-          <cell r="B139">
-            <v>37437</v>
-          </cell>
-          <cell r="C139">
-            <v>0.66666666666666596</v>
-          </cell>
-          <cell r="D139">
-            <v>0.33333333333333298</v>
-          </cell>
-          <cell r="E139">
-            <v>0.46666666666666601</v>
-          </cell>
-        </row>
-        <row r="140">
-          <cell r="B140">
-            <v>37468</v>
-          </cell>
-          <cell r="C140">
-            <v>0.7</v>
-          </cell>
-          <cell r="D140">
-            <v>0.4</v>
-          </cell>
-          <cell r="E140">
-            <v>0.43333333333333302</v>
-          </cell>
-        </row>
-        <row r="141">
-          <cell r="B141">
-            <v>37499</v>
-          </cell>
-          <cell r="C141">
-            <v>0.73333333333333295</v>
-          </cell>
-          <cell r="D141">
-            <v>0.3</v>
-          </cell>
-          <cell r="E141">
-            <v>0.43333333333333302</v>
-          </cell>
-        </row>
-        <row r="142">
-          <cell r="B142">
-            <v>37529</v>
-          </cell>
-          <cell r="C142">
-            <v>0.76666666666666605</v>
-          </cell>
-          <cell r="D142">
-            <v>0.2</v>
-          </cell>
-          <cell r="E142">
-            <v>0.43333333333333302</v>
-          </cell>
-        </row>
-        <row r="143">
-          <cell r="B143">
-            <v>37560</v>
-          </cell>
-          <cell r="C143">
-            <v>0.76666666666666605</v>
-          </cell>
-          <cell r="D143">
-            <v>0.3</v>
-          </cell>
-          <cell r="E143">
-            <v>0.4</v>
-          </cell>
-        </row>
-        <row r="144">
-          <cell r="B144">
-            <v>37590</v>
-          </cell>
-          <cell r="C144">
-            <v>0.76666666666666605</v>
-          </cell>
-          <cell r="D144">
-            <v>0.96666666666666601</v>
-          </cell>
-          <cell r="E144">
-            <v>0.4</v>
-          </cell>
-        </row>
-        <row r="145">
-          <cell r="B145">
-            <v>37621</v>
-          </cell>
-          <cell r="C145">
-            <v>0.8</v>
-          </cell>
-          <cell r="D145">
-            <v>0.86666666666666603</v>
-          </cell>
-          <cell r="E145">
-            <v>0.36666666666666597</v>
-          </cell>
-        </row>
-        <row r="146">
-          <cell r="B146">
-            <v>37652</v>
-          </cell>
-          <cell r="C146">
-            <v>0.86666666666666603</v>
-          </cell>
-          <cell r="D146">
-            <v>0.76666666666666605</v>
-          </cell>
-          <cell r="E146">
-            <v>0.6</v>
-          </cell>
-        </row>
-        <row r="147">
-          <cell r="B147">
-            <v>37680</v>
-          </cell>
-          <cell r="C147">
-            <v>0.63333333333333297</v>
-          </cell>
-          <cell r="D147">
-            <v>0.63333333333333297</v>
-          </cell>
-          <cell r="E147">
-            <v>0.5</v>
-          </cell>
-        </row>
-        <row r="148">
-          <cell r="B148">
-            <v>37711</v>
-          </cell>
-          <cell r="C148">
-            <v>0.53333333333333299</v>
-          </cell>
-          <cell r="D148">
-            <v>0.53333333333333299</v>
-          </cell>
-          <cell r="E148">
-            <v>0.4</v>
-          </cell>
-        </row>
-        <row r="149">
-          <cell r="B149">
-            <v>37741</v>
-          </cell>
-          <cell r="C149">
-            <v>0.66666666666666596</v>
-          </cell>
-          <cell r="D149">
-            <v>0.63333333333333297</v>
-          </cell>
-          <cell r="E149">
-            <v>0.53333333333333299</v>
-          </cell>
-        </row>
-        <row r="150">
-          <cell r="B150">
-            <v>37772</v>
-          </cell>
-          <cell r="C150">
-            <v>0.73333333333333295</v>
-          </cell>
-          <cell r="D150">
-            <v>0.7</v>
-          </cell>
-          <cell r="E150">
-            <v>0.73333333333333295</v>
-          </cell>
-        </row>
-        <row r="151">
-          <cell r="B151">
-            <v>37802</v>
-          </cell>
-          <cell r="C151">
-            <v>0.73333333333333295</v>
-          </cell>
-          <cell r="D151">
-            <v>0.36666666666666597</v>
-          </cell>
-          <cell r="E151">
-            <v>0.66666666666666596</v>
-          </cell>
-        </row>
-        <row r="152">
-          <cell r="B152">
-            <v>37833</v>
-          </cell>
-          <cell r="C152">
-            <v>0.73333333333333295</v>
-          </cell>
-          <cell r="D152">
-            <v>0.53333333333333299</v>
-          </cell>
-          <cell r="E152">
-            <v>0.66666666666666596</v>
-          </cell>
-        </row>
-        <row r="153">
-          <cell r="B153">
-            <v>37864</v>
-          </cell>
-          <cell r="C153">
-            <v>0.7</v>
-          </cell>
-          <cell r="D153">
-            <v>0.56666666666666599</v>
-          </cell>
-          <cell r="E153">
-            <v>0.63333333333333297</v>
-          </cell>
-        </row>
-        <row r="154">
-          <cell r="B154">
-            <v>37894</v>
-          </cell>
-          <cell r="C154">
-            <v>0.7</v>
-          </cell>
-          <cell r="D154">
-            <v>0.5</v>
-          </cell>
-          <cell r="E154">
-            <v>0.66666666666666596</v>
-          </cell>
-        </row>
-        <row r="155">
-          <cell r="B155">
-            <v>37925</v>
-          </cell>
-          <cell r="C155">
-            <v>0.66666666666666596</v>
-          </cell>
-          <cell r="D155">
-            <v>0.43333333333333302</v>
-          </cell>
-          <cell r="E155">
-            <v>0.63333333333333297</v>
-          </cell>
-        </row>
-        <row r="156">
-          <cell r="B156">
-            <v>37955</v>
-          </cell>
-          <cell r="C156">
-            <v>0.6</v>
-          </cell>
-          <cell r="D156">
-            <v>0.66666666666666596</v>
-          </cell>
-          <cell r="E156">
-            <v>0.6</v>
-          </cell>
-        </row>
-        <row r="157">
-          <cell r="B157">
-            <v>37986</v>
-          </cell>
-          <cell r="C157">
-            <v>0.63333333333333297</v>
-          </cell>
-          <cell r="D157">
-            <v>0.53333333333333299</v>
-          </cell>
-          <cell r="E157">
-            <v>0.7</v>
-          </cell>
-        </row>
-        <row r="158">
-          <cell r="B158">
-            <v>38017</v>
-          </cell>
-          <cell r="C158">
-            <v>0.63333333333333297</v>
-          </cell>
-          <cell r="D158">
-            <v>0.66666666666666596</v>
-          </cell>
-          <cell r="E158">
-            <v>0.86666666666666603</v>
-          </cell>
-        </row>
-        <row r="159">
-          <cell r="B159">
-            <v>38046</v>
-          </cell>
-          <cell r="C159">
-            <v>0.6</v>
-          </cell>
-          <cell r="D159">
-            <v>0.56666666666666599</v>
-          </cell>
-          <cell r="E159">
-            <v>0.66666666666666596</v>
-          </cell>
-        </row>
-        <row r="160">
-          <cell r="B160">
-            <v>38077</v>
-          </cell>
-          <cell r="C160">
-            <v>0.66666666666666596</v>
-          </cell>
-          <cell r="D160">
-            <v>0.6</v>
-          </cell>
-          <cell r="E160">
-            <v>0.6</v>
-          </cell>
-        </row>
-        <row r="161">
-          <cell r="B161">
-            <v>38107</v>
-          </cell>
-          <cell r="C161">
-            <v>0.6</v>
-          </cell>
-          <cell r="D161">
-            <v>0.36666666666666597</v>
-          </cell>
-          <cell r="E161">
-            <v>0.56666666666666599</v>
-          </cell>
-        </row>
-        <row r="162">
-          <cell r="B162">
-            <v>38138</v>
-          </cell>
-          <cell r="C162">
-            <v>0.6</v>
-          </cell>
-          <cell r="D162">
-            <v>0.3</v>
-          </cell>
-          <cell r="E162">
-            <v>0.43333333333333302</v>
-          </cell>
-        </row>
-        <row r="163">
-          <cell r="B163">
-            <v>38168</v>
-          </cell>
-          <cell r="C163">
-            <v>0.56666666666666599</v>
-          </cell>
-          <cell r="D163">
-            <v>0.266666666666666</v>
-          </cell>
-          <cell r="E163">
-            <v>0.43333333333333302</v>
-          </cell>
-        </row>
-        <row r="164">
-          <cell r="B164">
-            <v>38199</v>
-          </cell>
-          <cell r="C164">
-            <v>0.56666666666666599</v>
-          </cell>
-          <cell r="D164">
-            <v>0.33333333333333298</v>
-          </cell>
-          <cell r="E164">
-            <v>0.4</v>
-          </cell>
-        </row>
-        <row r="165">
-          <cell r="B165">
-            <v>38230</v>
-          </cell>
-          <cell r="C165">
-            <v>0.53333333333333299</v>
-          </cell>
-          <cell r="D165">
-            <v>0.33333333333333298</v>
-          </cell>
-          <cell r="E165">
-            <v>0.4</v>
-          </cell>
-        </row>
-        <row r="166">
-          <cell r="B166">
-            <v>38260</v>
-          </cell>
-          <cell r="C166">
-            <v>0.5</v>
-          </cell>
-          <cell r="D166">
-            <v>0.36666666666666597</v>
-          </cell>
-          <cell r="E166">
-            <v>0.4</v>
-          </cell>
-        </row>
-        <row r="167">
-          <cell r="B167">
-            <v>38291</v>
-          </cell>
-          <cell r="C167">
-            <v>0.5</v>
-          </cell>
-          <cell r="D167">
-            <v>0.83333333333333304</v>
-          </cell>
-          <cell r="E167">
-            <v>0.43333333333333302</v>
-          </cell>
-        </row>
-        <row r="168">
-          <cell r="B168">
-            <v>38321</v>
-          </cell>
-          <cell r="C168">
-            <v>0.53333333333333299</v>
-          </cell>
-          <cell r="D168">
-            <v>1</v>
-          </cell>
-          <cell r="E168">
-            <v>0.5</v>
-          </cell>
-        </row>
-        <row r="169">
-          <cell r="B169">
-            <v>38352</v>
-          </cell>
-          <cell r="C169">
-            <v>0.6</v>
-          </cell>
-          <cell r="D169">
-            <v>0.93333333333333302</v>
-          </cell>
-          <cell r="E169">
-            <v>0.46666666666666601</v>
-          </cell>
-        </row>
-        <row r="170">
-          <cell r="B170">
-            <v>38383</v>
-          </cell>
-          <cell r="C170">
-            <v>0.73333333333333295</v>
-          </cell>
-          <cell r="D170">
-            <v>1</v>
-          </cell>
-          <cell r="E170">
-            <v>0.76666666666666605</v>
-          </cell>
-        </row>
-        <row r="171">
-          <cell r="B171">
-            <v>38411</v>
-          </cell>
-          <cell r="C171">
-            <v>0.93333333333333302</v>
-          </cell>
-          <cell r="D171">
-            <v>0.96666666666666601</v>
-          </cell>
-          <cell r="E171">
-            <v>0.76666666666666605</v>
-          </cell>
-        </row>
-        <row r="172">
-          <cell r="B172">
-            <v>38442</v>
-          </cell>
-          <cell r="C172">
-            <v>1</v>
-          </cell>
-          <cell r="D172">
-            <v>0.96666666666666601</v>
-          </cell>
-          <cell r="E172">
-            <v>0.66666666666666596</v>
-          </cell>
-        </row>
-        <row r="173">
-          <cell r="B173">
-            <v>38472</v>
-          </cell>
-          <cell r="C173">
-            <v>1</v>
-          </cell>
-          <cell r="D173">
-            <v>0.86666666666666603</v>
-          </cell>
-          <cell r="E173">
-            <v>0.8</v>
-          </cell>
-        </row>
-        <row r="174">
-          <cell r="B174">
-            <v>38503</v>
-          </cell>
-          <cell r="C174">
-            <v>1</v>
-          </cell>
-          <cell r="D174">
-            <v>0.86666666666666603</v>
-          </cell>
-          <cell r="E174">
-            <v>0.83333333333333304</v>
-          </cell>
-        </row>
-        <row r="175">
-          <cell r="B175">
-            <v>38533</v>
-          </cell>
-          <cell r="C175">
-            <v>1</v>
-          </cell>
-          <cell r="D175">
-            <v>0.8</v>
-          </cell>
-          <cell r="E175">
-            <v>0.83333333333333304</v>
-          </cell>
-        </row>
-        <row r="176">
-          <cell r="B176">
-            <v>38564</v>
-          </cell>
-          <cell r="C176">
-            <v>1</v>
-          </cell>
-          <cell r="D176">
-            <v>0.56666666666666599</v>
-          </cell>
-          <cell r="E176">
-            <v>0.83333333333333304</v>
-          </cell>
-        </row>
-        <row r="177">
-          <cell r="B177">
-            <v>38595</v>
-          </cell>
-          <cell r="C177">
-            <v>1</v>
-          </cell>
-          <cell r="D177">
-            <v>0.9</v>
-          </cell>
-          <cell r="E177">
-            <v>0.8</v>
-          </cell>
-        </row>
-        <row r="178">
-          <cell r="B178">
-            <v>38625</v>
-          </cell>
-          <cell r="C178">
-            <v>1</v>
-          </cell>
-          <cell r="D178">
-            <v>0.83333333333333304</v>
-          </cell>
-          <cell r="E178">
-            <v>0.8</v>
-          </cell>
-        </row>
-        <row r="179">
-          <cell r="B179">
-            <v>38656</v>
-          </cell>
-          <cell r="C179">
-            <v>1</v>
-          </cell>
-          <cell r="D179">
-            <v>0.76666666666666605</v>
-          </cell>
-          <cell r="E179">
-            <v>0.86666666666666603</v>
-          </cell>
-        </row>
-        <row r="180">
-          <cell r="B180">
-            <v>38686</v>
-          </cell>
-          <cell r="C180">
-            <v>1</v>
-          </cell>
-          <cell r="D180">
-            <v>0.63333333333333297</v>
-          </cell>
-          <cell r="E180">
-            <v>0.86666666666666603</v>
-          </cell>
-        </row>
-        <row r="181">
-          <cell r="B181">
-            <v>38717</v>
-          </cell>
-          <cell r="C181">
-            <v>1</v>
-          </cell>
-          <cell r="D181">
-            <v>0.83333333333333304</v>
-          </cell>
-          <cell r="E181">
-            <v>0.9</v>
-          </cell>
-        </row>
-        <row r="182">
-          <cell r="B182">
-            <v>38748</v>
-          </cell>
-          <cell r="C182">
-            <v>1</v>
-          </cell>
-          <cell r="D182">
-            <v>0.9</v>
-          </cell>
-          <cell r="E182">
-            <v>0.96666666666666601</v>
-          </cell>
-        </row>
-        <row r="183">
-          <cell r="B183">
-            <v>38776</v>
-          </cell>
-          <cell r="C183">
-            <v>1</v>
-          </cell>
-          <cell r="D183">
-            <v>0.76666666666666605</v>
-          </cell>
-          <cell r="E183">
-            <v>0.83333333333333304</v>
-          </cell>
-        </row>
-        <row r="184">
-          <cell r="B184">
-            <v>38807</v>
-          </cell>
-          <cell r="C184">
-            <v>0.96666666666666601</v>
-          </cell>
-          <cell r="D184">
-            <v>0.8</v>
-          </cell>
-          <cell r="E184">
-            <v>0.83333333333333304</v>
-          </cell>
-        </row>
-        <row r="185">
-          <cell r="B185">
-            <v>38837</v>
-          </cell>
-          <cell r="C185">
-            <v>0.93333333333333302</v>
-          </cell>
-          <cell r="D185">
-            <v>0.93333333333333302</v>
-          </cell>
-          <cell r="E185">
-            <v>0.96666666666666601</v>
-          </cell>
-        </row>
-        <row r="186">
-          <cell r="B186">
-            <v>38868</v>
-          </cell>
-          <cell r="C186">
-            <v>0.93333333333333302</v>
-          </cell>
-          <cell r="D186">
-            <v>0.83333333333333304</v>
-          </cell>
-          <cell r="E186">
-            <v>0.9</v>
-          </cell>
-        </row>
-        <row r="187">
-          <cell r="B187">
-            <v>38898</v>
-          </cell>
-          <cell r="C187">
-            <v>0.93333333333333302</v>
-          </cell>
-          <cell r="D187">
-            <v>0.83333333333333304</v>
-          </cell>
-          <cell r="E187">
-            <v>0.9</v>
-          </cell>
-        </row>
-        <row r="188">
-          <cell r="B188">
-            <v>38929</v>
-          </cell>
-          <cell r="C188">
-            <v>0.93333333333333302</v>
-          </cell>
-          <cell r="D188">
-            <v>0.96666666666666601</v>
-          </cell>
-          <cell r="E188">
-            <v>0.9</v>
-          </cell>
-        </row>
-        <row r="189">
-          <cell r="B189">
-            <v>38960</v>
-          </cell>
-          <cell r="C189">
-            <v>0.93333333333333302</v>
-          </cell>
-          <cell r="D189">
-            <v>1</v>
-          </cell>
-          <cell r="E189">
-            <v>0.86666666666666603</v>
-          </cell>
-        </row>
-        <row r="190">
-          <cell r="B190">
-            <v>38990</v>
-          </cell>
-          <cell r="C190">
-            <v>0.93333333333333302</v>
-          </cell>
-          <cell r="D190">
-            <v>0.96666666666666601</v>
-          </cell>
-          <cell r="E190">
-            <v>0.86666666666666603</v>
-          </cell>
-        </row>
-        <row r="191">
-          <cell r="B191">
-            <v>39021</v>
-          </cell>
-          <cell r="C191">
-            <v>0.93333333333333302</v>
-          </cell>
-          <cell r="D191">
-            <v>0.93333333333333302</v>
-          </cell>
-          <cell r="E191">
-            <v>0.9</v>
-          </cell>
-        </row>
-        <row r="192">
-          <cell r="B192">
-            <v>39051</v>
-          </cell>
-          <cell r="C192">
-            <v>0.93333333333333302</v>
-          </cell>
-          <cell r="D192">
-            <v>0.7</v>
-          </cell>
-          <cell r="E192">
-            <v>0.9</v>
-          </cell>
-        </row>
-        <row r="193">
-          <cell r="B193">
-            <v>39082</v>
-          </cell>
-          <cell r="C193">
-            <v>0.9</v>
-          </cell>
-          <cell r="D193">
-            <v>0.233333333333333</v>
-          </cell>
-          <cell r="E193">
-            <v>0.93333333333333302</v>
-          </cell>
-        </row>
-        <row r="194">
-          <cell r="B194">
-            <v>39113</v>
-          </cell>
-          <cell r="C194">
-            <v>0.83333333333333304</v>
-          </cell>
-          <cell r="D194">
-            <v>0.3</v>
-          </cell>
-          <cell r="E194">
-            <v>0.73333333333333295</v>
-          </cell>
-        </row>
-        <row r="195">
-          <cell r="B195">
-            <v>39141</v>
-          </cell>
-          <cell r="C195">
-            <v>0.8</v>
-          </cell>
-          <cell r="D195">
-            <v>0.2</v>
-          </cell>
-          <cell r="E195">
-            <v>0.46666666666666601</v>
-          </cell>
-        </row>
-        <row r="196">
-          <cell r="B196">
-            <v>39172</v>
-          </cell>
-          <cell r="C196">
-            <v>0.76666666666666605</v>
-          </cell>
-          <cell r="D196">
-            <v>0.133333333333333</v>
-          </cell>
-          <cell r="E196">
-            <v>0.53333333333333299</v>
-          </cell>
-        </row>
-        <row r="197">
-          <cell r="B197">
-            <v>39202</v>
-          </cell>
-          <cell r="C197">
-            <v>0.76666666666666605</v>
-          </cell>
-          <cell r="D197">
-            <v>0.133333333333333</v>
-          </cell>
-          <cell r="E197">
-            <v>0.36666666666666597</v>
-          </cell>
-        </row>
-        <row r="198">
-          <cell r="B198">
-            <v>39233</v>
-          </cell>
-          <cell r="C198">
-            <v>0.8</v>
-          </cell>
-          <cell r="D198">
-            <v>0.233333333333333</v>
-          </cell>
-          <cell r="E198">
-            <v>0.4</v>
-          </cell>
-        </row>
-        <row r="199">
-          <cell r="B199">
-            <v>39263</v>
-          </cell>
-          <cell r="C199">
-            <v>0.8</v>
-          </cell>
-          <cell r="D199">
-            <v>0.43333333333333302</v>
-          </cell>
-          <cell r="E199">
-            <v>0.33333333333333298</v>
-          </cell>
-        </row>
-        <row r="200">
-          <cell r="B200">
-            <v>39294</v>
-          </cell>
-          <cell r="C200">
-            <v>0.8</v>
-          </cell>
-          <cell r="D200">
-            <v>0.36666666666666597</v>
-          </cell>
-          <cell r="E200">
-            <v>0.3</v>
-          </cell>
-        </row>
-        <row r="201">
-          <cell r="B201">
-            <v>39325</v>
-          </cell>
-          <cell r="C201">
-            <v>0.8</v>
-          </cell>
-          <cell r="D201">
-            <v>0.36666666666666597</v>
-          </cell>
-          <cell r="E201">
-            <v>0.266666666666666</v>
-          </cell>
-        </row>
-        <row r="202">
-          <cell r="B202">
-            <v>39355</v>
-          </cell>
-          <cell r="C202">
-            <v>0.8</v>
-          </cell>
-          <cell r="D202">
-            <v>0.266666666666666</v>
-          </cell>
-          <cell r="E202">
-            <v>0.3</v>
-          </cell>
-        </row>
-        <row r="203">
-          <cell r="B203">
-            <v>39386</v>
-          </cell>
-          <cell r="C203">
-            <v>0.83333333333333304</v>
-          </cell>
-          <cell r="D203">
-            <v>0.1</v>
-          </cell>
-          <cell r="E203">
-            <v>0.3</v>
-          </cell>
-        </row>
-        <row r="204">
-          <cell r="B204">
-            <v>39416</v>
-          </cell>
-          <cell r="C204">
-            <v>0.8</v>
-          </cell>
-          <cell r="D204">
-            <v>6.6666666666666596E-2</v>
-          </cell>
-          <cell r="E204">
-            <v>0.3</v>
-          </cell>
-        </row>
-        <row r="205">
-          <cell r="B205">
-            <v>39447</v>
-          </cell>
-          <cell r="C205">
-            <v>0.66666666666666596</v>
-          </cell>
-          <cell r="D205">
-            <v>0.3</v>
-          </cell>
-          <cell r="E205">
-            <v>0.266666666666666</v>
-          </cell>
-        </row>
-        <row r="206">
-          <cell r="B206">
-            <v>39478</v>
-          </cell>
-          <cell r="C206">
-            <v>0.6</v>
-          </cell>
-          <cell r="D206">
-            <v>0.7</v>
-          </cell>
-          <cell r="E206">
-            <v>0.3</v>
-          </cell>
-        </row>
-        <row r="207">
-          <cell r="B207">
-            <v>39507</v>
-          </cell>
-          <cell r="C207">
-            <v>0.83333333333333304</v>
-          </cell>
-          <cell r="D207">
-            <v>0.7</v>
-          </cell>
-          <cell r="E207">
-            <v>0.43333333333333302</v>
-          </cell>
-        </row>
-        <row r="208">
-          <cell r="B208">
-            <v>39538</v>
-          </cell>
-          <cell r="C208">
-            <v>0.83333333333333304</v>
-          </cell>
-          <cell r="D208">
-            <v>0.7</v>
-          </cell>
-          <cell r="E208">
-            <v>0.46666666666666601</v>
-          </cell>
-        </row>
-        <row r="209">
-          <cell r="B209">
-            <v>39568</v>
-          </cell>
-          <cell r="C209">
-            <v>0.73333333333333295</v>
-          </cell>
-          <cell r="D209">
-            <v>0.6</v>
-          </cell>
-          <cell r="E209">
-            <v>0.33333333333333298</v>
-          </cell>
-        </row>
-        <row r="210">
-          <cell r="B210">
-            <v>39599</v>
-          </cell>
-          <cell r="C210">
-            <v>0.7</v>
-          </cell>
-          <cell r="D210">
-            <v>0.36666666666666597</v>
-          </cell>
-          <cell r="E210">
-            <v>0.16666666666666599</v>
-          </cell>
-        </row>
-        <row r="211">
-          <cell r="B211">
-            <v>39629</v>
-          </cell>
-          <cell r="C211">
-            <v>0.7</v>
-          </cell>
-          <cell r="D211">
-            <v>0.3</v>
-          </cell>
-          <cell r="E211">
-            <v>0.16666666666666599</v>
-          </cell>
-        </row>
-        <row r="212">
-          <cell r="B212">
-            <v>39660</v>
-          </cell>
-          <cell r="C212">
-            <v>0.66666666666666596</v>
-          </cell>
-          <cell r="D212">
-            <v>0.133333333333333</v>
-          </cell>
-          <cell r="E212">
-            <v>0.16666666666666599</v>
-          </cell>
-        </row>
-        <row r="213">
-          <cell r="B213">
-            <v>39691</v>
-          </cell>
-          <cell r="C213">
-            <v>0.66666666666666596</v>
-          </cell>
-          <cell r="D213">
-            <v>0.16666666666666599</v>
-          </cell>
-          <cell r="E213">
-            <v>0.16666666666666599</v>
-          </cell>
-        </row>
-        <row r="214">
-          <cell r="B214">
-            <v>39721</v>
-          </cell>
-          <cell r="C214">
-            <v>0.63333333333333297</v>
-          </cell>
-          <cell r="D214">
-            <v>0.1</v>
-          </cell>
-          <cell r="E214">
-            <v>0.16666666666666599</v>
-          </cell>
-        </row>
-        <row r="215">
-          <cell r="B215">
-            <v>39752</v>
-          </cell>
-          <cell r="C215">
-            <v>0.56666666666666599</v>
-          </cell>
-          <cell r="D215">
-            <v>6.6666666666666596E-2</v>
-          </cell>
-          <cell r="E215">
-            <v>0.16666666666666599</v>
-          </cell>
-        </row>
-        <row r="216">
-          <cell r="B216">
-            <v>39782</v>
-          </cell>
-          <cell r="C216">
-            <v>0.5</v>
-          </cell>
-          <cell r="D216">
-            <v>0.36666666666666597</v>
-          </cell>
-          <cell r="E216">
-            <v>0.133333333333333</v>
-          </cell>
-        </row>
-        <row r="217">
-          <cell r="B217">
-            <v>39813</v>
-          </cell>
-          <cell r="C217">
-            <v>0.5</v>
-          </cell>
-          <cell r="D217">
-            <v>0.4</v>
-          </cell>
-          <cell r="E217">
-            <v>0.16666666666666599</v>
-          </cell>
-        </row>
-        <row r="218">
-          <cell r="B218">
-            <v>39844</v>
-          </cell>
-          <cell r="C218">
-            <v>0.5</v>
-          </cell>
-          <cell r="D218">
-            <v>0.43333333333333302</v>
-          </cell>
-          <cell r="E218">
-            <v>0.16666666666666599</v>
-          </cell>
-        </row>
-        <row r="219">
-          <cell r="B219">
-            <v>39872</v>
-          </cell>
-          <cell r="C219">
-            <v>0.4</v>
-          </cell>
-          <cell r="D219">
-            <v>0.43333333333333302</v>
-          </cell>
-          <cell r="E219">
-            <v>0.16666666666666599</v>
-          </cell>
-        </row>
-        <row r="220">
-          <cell r="B220">
-            <v>39903</v>
-          </cell>
-          <cell r="C220">
-            <v>0.4</v>
-          </cell>
-          <cell r="D220">
-            <v>0.4</v>
-          </cell>
-          <cell r="E220">
-            <v>0.16666666666666599</v>
-          </cell>
-        </row>
-        <row r="221">
-          <cell r="B221">
-            <v>39933</v>
-          </cell>
-          <cell r="C221">
-            <v>0.4</v>
-          </cell>
-          <cell r="D221">
-            <v>0.43333333333333302</v>
-          </cell>
-          <cell r="E221">
-            <v>0.233333333333333</v>
-          </cell>
-        </row>
-        <row r="222">
-          <cell r="B222">
-            <v>39964</v>
-          </cell>
-          <cell r="C222">
-            <v>0.33333333333333298</v>
-          </cell>
-          <cell r="D222">
-            <v>0.43333333333333302</v>
-          </cell>
-          <cell r="E222">
-            <v>0.2</v>
-          </cell>
-        </row>
-        <row r="223">
-          <cell r="B223">
-            <v>39994</v>
-          </cell>
-          <cell r="C223">
-            <v>0.3</v>
-          </cell>
-          <cell r="D223">
-            <v>0.4</v>
-          </cell>
-          <cell r="E223">
-            <v>0.233333333333333</v>
-          </cell>
-        </row>
-        <row r="224">
-          <cell r="B224">
-            <v>40025</v>
-          </cell>
-          <cell r="C224">
-            <v>0.33333333333333298</v>
-          </cell>
-          <cell r="D224">
-            <v>0.66666666666666596</v>
-          </cell>
-          <cell r="E224">
-            <v>0.266666666666666</v>
-          </cell>
-        </row>
-        <row r="225">
-          <cell r="B225">
-            <v>40056</v>
-          </cell>
-          <cell r="C225">
-            <v>0.33333333333333298</v>
-          </cell>
-          <cell r="D225">
-            <v>0.73333333333333295</v>
-          </cell>
-          <cell r="E225">
-            <v>0.3</v>
-          </cell>
-        </row>
-        <row r="226">
-          <cell r="B226">
-            <v>40086</v>
-          </cell>
-          <cell r="C226">
-            <v>0.3</v>
-          </cell>
-          <cell r="D226">
-            <v>0.76666666666666605</v>
-          </cell>
-          <cell r="E226">
-            <v>0.266666666666666</v>
-          </cell>
-        </row>
-        <row r="227">
-          <cell r="B227">
-            <v>40117</v>
-          </cell>
-          <cell r="C227">
-            <v>0.3</v>
-          </cell>
-          <cell r="D227">
-            <v>0.86666666666666603</v>
-          </cell>
-          <cell r="E227">
-            <v>0.266666666666666</v>
-          </cell>
-        </row>
-        <row r="228">
-          <cell r="B228">
-            <v>40147</v>
-          </cell>
-          <cell r="C228">
-            <v>0.3</v>
-          </cell>
-          <cell r="D228">
-            <v>0.53333333333333299</v>
-          </cell>
-          <cell r="E228">
-            <v>0.266666666666666</v>
-          </cell>
-        </row>
-        <row r="229">
-          <cell r="B229">
-            <v>40178</v>
-          </cell>
-          <cell r="C229">
-            <v>0.33333333333333298</v>
-          </cell>
-          <cell r="D229">
-            <v>0.66666666666666596</v>
-          </cell>
-          <cell r="E229">
-            <v>0.233333333333333</v>
-          </cell>
-        </row>
-        <row r="230">
-          <cell r="B230">
-            <v>40209</v>
-          </cell>
-          <cell r="C230">
-            <v>0.43333333333333302</v>
-          </cell>
-          <cell r="D230">
-            <v>0.63333333333333297</v>
-          </cell>
-          <cell r="E230">
-            <v>0.233333333333333</v>
-          </cell>
-        </row>
-        <row r="231">
-          <cell r="B231">
-            <v>40237</v>
-          </cell>
-          <cell r="C231">
-            <v>0.43333333333333302</v>
-          </cell>
-          <cell r="D231">
-            <v>0.66666666666666596</v>
-          </cell>
-          <cell r="E231">
-            <v>0.33333333333333298</v>
-          </cell>
-        </row>
-        <row r="232">
-          <cell r="B232">
-            <v>40268</v>
-          </cell>
-          <cell r="C232">
-            <v>0.46666666666666601</v>
-          </cell>
-          <cell r="D232">
-            <v>0.63333333333333297</v>
-          </cell>
-          <cell r="E232">
-            <v>0.5</v>
-          </cell>
-        </row>
-        <row r="233">
-          <cell r="B233">
-            <v>40298</v>
-          </cell>
-          <cell r="C233">
-            <v>0.43333333333333302</v>
-          </cell>
-          <cell r="D233">
-            <v>0.73333333333333295</v>
-          </cell>
-          <cell r="E233">
-            <v>0.66666666666666596</v>
-          </cell>
-        </row>
-        <row r="234">
-          <cell r="B234">
-            <v>40329</v>
-          </cell>
-          <cell r="C234">
-            <v>0.4</v>
-          </cell>
-          <cell r="D234">
-            <v>0.73333333333333295</v>
-          </cell>
-          <cell r="E234">
-            <v>0.7</v>
-          </cell>
-        </row>
-        <row r="235">
-          <cell r="B235">
-            <v>40359</v>
-          </cell>
-          <cell r="C235">
-            <v>0.4</v>
-          </cell>
-          <cell r="D235">
-            <v>0.76666666666666605</v>
-          </cell>
-          <cell r="E235">
-            <v>0.53333333333333299</v>
-          </cell>
-        </row>
-        <row r="236">
-          <cell r="B236">
-            <v>40390</v>
-          </cell>
-          <cell r="C236">
-            <v>0.43333333333333302</v>
-          </cell>
-          <cell r="D236">
-            <v>0.46666666666666601</v>
-          </cell>
-          <cell r="E236">
-            <v>0.6</v>
-          </cell>
-        </row>
-        <row r="237">
-          <cell r="B237">
-            <v>40421</v>
-          </cell>
-          <cell r="C237">
-            <v>0.5</v>
-          </cell>
-          <cell r="D237">
-            <v>0.66666666666666596</v>
-          </cell>
-          <cell r="E237">
-            <v>0.66666666666666596</v>
-          </cell>
-        </row>
-        <row r="238">
-          <cell r="B238">
-            <v>40451</v>
-          </cell>
-          <cell r="C238">
-            <v>0.56666666666666599</v>
-          </cell>
-          <cell r="D238">
-            <v>0.56666666666666599</v>
-          </cell>
-          <cell r="E238">
-            <v>0.63333333333333297</v>
-          </cell>
-        </row>
-        <row r="239">
-          <cell r="B239">
-            <v>40482</v>
-          </cell>
-          <cell r="C239">
-            <v>0.6</v>
-          </cell>
-          <cell r="D239">
-            <v>0.46666666666666601</v>
-          </cell>
-          <cell r="E239">
-            <v>0.6</v>
-          </cell>
-        </row>
-        <row r="240">
-          <cell r="B240">
-            <v>40512</v>
-          </cell>
-          <cell r="C240">
-            <v>0.63333333333333297</v>
-          </cell>
-          <cell r="D240">
-            <v>0.76666666666666605</v>
-          </cell>
-          <cell r="E240">
-            <v>0.63333333333333297</v>
-          </cell>
-        </row>
-        <row r="241">
-          <cell r="B241">
-            <v>40543</v>
-          </cell>
-          <cell r="C241">
-            <v>0.73333333333333295</v>
-          </cell>
-          <cell r="D241">
-            <v>1</v>
-          </cell>
-          <cell r="E241">
-            <v>0.83333333333333304</v>
-          </cell>
-        </row>
-        <row r="242">
-          <cell r="B242">
-            <v>40574</v>
-          </cell>
-          <cell r="C242">
-            <v>0.9</v>
-          </cell>
-          <cell r="D242">
-            <v>0.96666666666666601</v>
-          </cell>
-          <cell r="E242">
-            <v>0.93333333333333302</v>
-          </cell>
-        </row>
-        <row r="243">
-          <cell r="B243">
-            <v>40602</v>
-          </cell>
-          <cell r="C243">
-            <v>0.9</v>
-          </cell>
-          <cell r="D243">
-            <v>0.86666666666666603</v>
-          </cell>
-          <cell r="E243">
-            <v>0.8</v>
-          </cell>
-        </row>
-        <row r="244">
-          <cell r="B244">
-            <v>40633</v>
-          </cell>
-          <cell r="C244">
-            <v>0.93333333333333302</v>
-          </cell>
-          <cell r="D244">
-            <v>0.9</v>
-          </cell>
-          <cell r="E244">
-            <v>0.9</v>
-          </cell>
-        </row>
-        <row r="245">
-          <cell r="B245">
-            <v>40663</v>
-          </cell>
-          <cell r="C245">
-            <v>0.96666666666666601</v>
-          </cell>
-          <cell r="D245">
-            <v>0.9</v>
-          </cell>
-          <cell r="E245">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="246">
-          <cell r="B246">
-            <v>40694</v>
-          </cell>
-          <cell r="C246">
-            <v>0.96666666666666601</v>
-          </cell>
-          <cell r="D246">
-            <v>0.93333333333333302</v>
-          </cell>
-          <cell r="E246">
-            <v>0.93333333333333302</v>
-          </cell>
-        </row>
-        <row r="247">
-          <cell r="B247">
-            <v>40724</v>
-          </cell>
-          <cell r="C247">
-            <v>0.96666666666666601</v>
-          </cell>
-          <cell r="D247">
-            <v>0.9</v>
-          </cell>
-          <cell r="E247">
-            <v>0.93333333333333302</v>
-          </cell>
-        </row>
-        <row r="248">
-          <cell r="B248">
-            <v>40755</v>
-          </cell>
-          <cell r="C248">
-            <v>0.96666666666666601</v>
-          </cell>
-          <cell r="D248">
-            <v>0.6</v>
-          </cell>
-          <cell r="E248">
-            <v>0.93333333333333302</v>
-          </cell>
-        </row>
-        <row r="249">
-          <cell r="B249">
-            <v>40786</v>
-          </cell>
-          <cell r="C249">
-            <v>0.96666666666666601</v>
-          </cell>
-          <cell r="D249">
-            <v>0.8</v>
-          </cell>
-          <cell r="E249">
-            <v>0.96666666666666601</v>
-          </cell>
-        </row>
-        <row r="250">
-          <cell r="B250">
-            <v>40816</v>
-          </cell>
-          <cell r="C250">
-            <v>0.96666666666666601</v>
-          </cell>
-          <cell r="D250">
-            <v>0.9</v>
-          </cell>
-          <cell r="E250">
-            <v>0.96666666666666601</v>
-          </cell>
-        </row>
-        <row r="251">
-          <cell r="B251">
-            <v>40847</v>
-          </cell>
-          <cell r="C251">
-            <v>0.96666666666666601</v>
-          </cell>
-          <cell r="D251">
-            <v>0.96666666666666601</v>
-          </cell>
-          <cell r="E251">
-            <v>0.96666666666666601</v>
-          </cell>
-        </row>
-        <row r="252">
-          <cell r="B252">
-            <v>40877</v>
-          </cell>
-          <cell r="C252">
-            <v>0.96666666666666601</v>
-          </cell>
-          <cell r="D252">
-            <v>0.86666666666666603</v>
-          </cell>
-          <cell r="E252">
-            <v>0.96666666666666601</v>
-          </cell>
-        </row>
-        <row r="253">
-          <cell r="B253">
-            <v>40908</v>
-          </cell>
-          <cell r="C253">
-            <v>0.96666666666666601</v>
-          </cell>
-          <cell r="D253">
-            <v>0.46666666666666601</v>
-          </cell>
-          <cell r="E253">
-            <v>0.86666666666666603</v>
-          </cell>
-        </row>
-        <row r="254">
-          <cell r="B254">
-            <v>40939</v>
-          </cell>
-          <cell r="C254">
-            <v>0.96666666666666601</v>
-          </cell>
-          <cell r="D254">
-            <v>0.33333333333333298</v>
-          </cell>
-          <cell r="E254">
-            <v>0.53333333333333299</v>
-          </cell>
-        </row>
-        <row r="255">
-          <cell r="B255">
-            <v>40968</v>
-          </cell>
-          <cell r="C255">
-            <v>0.96666666666666601</v>
-          </cell>
-          <cell r="D255">
-            <v>0.266666666666666</v>
-          </cell>
-          <cell r="E255">
-            <v>0.36666666666666597</v>
-          </cell>
-        </row>
-        <row r="256">
-          <cell r="B256">
-            <v>40999</v>
-          </cell>
-          <cell r="C256">
-            <v>0.9</v>
-          </cell>
-          <cell r="D256">
-            <v>0.1</v>
-          </cell>
-          <cell r="E256">
-            <v>0.3</v>
-          </cell>
-        </row>
-        <row r="257">
-          <cell r="B257">
-            <v>41029</v>
-          </cell>
-          <cell r="C257">
-            <v>0.86666666666666603</v>
-          </cell>
-          <cell r="D257">
-            <v>0.16666666666666599</v>
-          </cell>
-          <cell r="E257">
-            <v>0.5</v>
-          </cell>
-        </row>
-        <row r="258">
-          <cell r="B258">
-            <v>41060</v>
-          </cell>
-          <cell r="C258">
-            <v>0.83333333333333304</v>
-          </cell>
-          <cell r="D258">
-            <v>0.16666666666666599</v>
-          </cell>
-          <cell r="E258">
-            <v>0.56666666666666599</v>
-          </cell>
-        </row>
-        <row r="259">
-          <cell r="B259">
-            <v>41090</v>
-          </cell>
-          <cell r="C259">
-            <v>0.83333333333333304</v>
-          </cell>
-          <cell r="D259">
-            <v>0.56666666666666599</v>
-          </cell>
-          <cell r="E259">
-            <v>0.6</v>
-          </cell>
-        </row>
-        <row r="260">
-          <cell r="B260">
-            <v>41121</v>
-          </cell>
-          <cell r="C260">
-            <v>0.86666666666666603</v>
-          </cell>
-          <cell r="D260">
-            <v>0.43333333333333302</v>
-          </cell>
-          <cell r="E260">
-            <v>0.5</v>
-          </cell>
-        </row>
-        <row r="261">
-          <cell r="B261">
-            <v>41152</v>
-          </cell>
-          <cell r="C261">
-            <v>0.83333333333333304</v>
-          </cell>
-          <cell r="D261">
-            <v>0.4</v>
-          </cell>
-          <cell r="E261">
-            <v>0.5</v>
-          </cell>
-        </row>
-        <row r="262">
-          <cell r="B262">
-            <v>41182</v>
-          </cell>
-          <cell r="C262">
-            <v>0.83333333333333304</v>
-          </cell>
-          <cell r="D262">
-            <v>0.4</v>
-          </cell>
-          <cell r="E262">
-            <v>0.5</v>
-          </cell>
-        </row>
-        <row r="263">
-          <cell r="B263">
-            <v>41213</v>
-          </cell>
-          <cell r="C263">
-            <v>0.86666666666666603</v>
-          </cell>
-          <cell r="D263">
-            <v>0.33333333333333298</v>
-          </cell>
-          <cell r="E263">
-            <v>0.5</v>
-          </cell>
-        </row>
-        <row r="264">
-          <cell r="B264">
-            <v>41243</v>
-          </cell>
-          <cell r="C264">
-            <v>0.86666666666666603</v>
-          </cell>
-          <cell r="D264">
-            <v>0.233333333333333</v>
-          </cell>
-          <cell r="E264">
-            <v>0.46666666666666601</v>
-          </cell>
-        </row>
-        <row r="265">
-          <cell r="B265">
-            <v>41274</v>
-          </cell>
-          <cell r="C265">
-            <v>0.53333333333333299</v>
-          </cell>
-          <cell r="D265">
-            <v>0.73333333333333295</v>
-          </cell>
-          <cell r="E265">
-            <v>0.5</v>
-          </cell>
-        </row>
-        <row r="266">
-          <cell r="B266">
-            <v>41305</v>
-          </cell>
-          <cell r="C266">
-            <v>0.76666666666666605</v>
-          </cell>
-          <cell r="D266">
-            <v>0.53333333333333299</v>
-          </cell>
-          <cell r="E266">
-            <v>0.8</v>
-          </cell>
-        </row>
-        <row r="267">
-          <cell r="B267">
-            <v>41333</v>
-          </cell>
-          <cell r="C267">
-            <v>0.7</v>
-          </cell>
-          <cell r="D267">
-            <v>0.33333333333333298</v>
-          </cell>
-          <cell r="E267">
-            <v>0.53333333333333299</v>
-          </cell>
-        </row>
-        <row r="268">
-          <cell r="B268">
-            <v>41364</v>
-          </cell>
-          <cell r="C268">
-            <v>0.6</v>
-          </cell>
-          <cell r="D268">
-            <v>0.16666666666666599</v>
-          </cell>
-          <cell r="E268">
-            <v>0.36666666666666597</v>
-          </cell>
-        </row>
-        <row r="269">
-          <cell r="B269">
-            <v>41394</v>
-          </cell>
-          <cell r="C269">
-            <v>0.53333333333333299</v>
-          </cell>
-          <cell r="D269">
-            <v>6.6666666666666596E-2</v>
-          </cell>
-          <cell r="E269">
-            <v>0.2</v>
-          </cell>
-        </row>
-        <row r="270">
-          <cell r="B270">
-            <v>41425</v>
-          </cell>
-          <cell r="C270">
-            <v>0.53333333333333299</v>
-          </cell>
-          <cell r="D270">
-            <v>0.133333333333333</v>
-          </cell>
-          <cell r="E270">
-            <v>0.266666666666666</v>
-          </cell>
-        </row>
-        <row r="271">
-          <cell r="B271">
-            <v>41455</v>
-          </cell>
-          <cell r="C271">
-            <v>0.53333333333333299</v>
-          </cell>
-          <cell r="D271">
-            <v>0.16666666666666599</v>
-          </cell>
-          <cell r="E271">
-            <v>0.266666666666666</v>
-          </cell>
-        </row>
-        <row r="272">
-          <cell r="B272">
-            <v>41486</v>
-          </cell>
-          <cell r="C272">
-            <v>0.36666666666666597</v>
-          </cell>
-          <cell r="D272">
-            <v>0.233333333333333</v>
-          </cell>
-          <cell r="E272">
-            <v>0.233333333333333</v>
-          </cell>
-        </row>
-        <row r="273">
-          <cell r="B273">
-            <v>41517</v>
-          </cell>
-          <cell r="C273">
-            <v>0.56666666666666599</v>
-          </cell>
-          <cell r="D273">
-            <v>0.233333333333333</v>
-          </cell>
-          <cell r="E273">
-            <v>0.233333333333333</v>
-          </cell>
-        </row>
-        <row r="274">
-          <cell r="B274">
-            <v>41547</v>
-          </cell>
-          <cell r="C274">
-            <v>0.53333333333333299</v>
-          </cell>
-          <cell r="D274">
-            <v>0.233333333333333</v>
-          </cell>
-          <cell r="E274">
-            <v>0.233333333333333</v>
-          </cell>
-        </row>
-        <row r="275">
-          <cell r="B275">
-            <v>41578</v>
-          </cell>
-          <cell r="C275">
-            <v>0.53333333333333299</v>
-          </cell>
-          <cell r="D275">
-            <v>0.233333333333333</v>
-          </cell>
-          <cell r="E275">
-            <v>0.233333333333333</v>
-          </cell>
-        </row>
-        <row r="276">
-          <cell r="B276">
-            <v>41608</v>
-          </cell>
-          <cell r="C276">
-            <v>0.56666666666666599</v>
-          </cell>
-          <cell r="D276">
-            <v>0.133333333333333</v>
-          </cell>
-          <cell r="E276">
-            <v>0.2</v>
-          </cell>
-        </row>
-        <row r="277">
-          <cell r="B277">
-            <v>41639</v>
-          </cell>
-          <cell r="C277">
-            <v>0.56666666666666599</v>
-          </cell>
-          <cell r="D277">
-            <v>0.2</v>
-          </cell>
-          <cell r="E277">
-            <v>0.2</v>
-          </cell>
-        </row>
-        <row r="278">
-          <cell r="B278">
-            <v>41670</v>
-          </cell>
-          <cell r="C278">
-            <v>0.56666666666666599</v>
-          </cell>
-          <cell r="D278">
-            <v>6.6666666666666596E-2</v>
-          </cell>
-          <cell r="E278">
-            <v>6.6666666666666596E-2</v>
-          </cell>
-        </row>
-        <row r="279">
-          <cell r="B279">
-            <v>41698</v>
-          </cell>
-          <cell r="C279">
-            <v>0.53333333333333299</v>
-          </cell>
-          <cell r="D279">
-            <v>0.133333333333333</v>
-          </cell>
-          <cell r="E279">
-            <v>6.6666666666666596E-2</v>
-          </cell>
-        </row>
-        <row r="280">
-          <cell r="B280">
-            <v>41729</v>
-          </cell>
-          <cell r="C280">
-            <v>0.43333333333333302</v>
-          </cell>
-          <cell r="D280">
-            <v>6.6666666666666596E-2</v>
-          </cell>
-          <cell r="E280">
-            <v>6.6666666666666596E-2</v>
-          </cell>
-        </row>
-        <row r="281">
-          <cell r="B281">
-            <v>41759</v>
-          </cell>
-          <cell r="C281">
-            <v>0.33333333333333298</v>
-          </cell>
-          <cell r="D281">
-            <v>0.1</v>
-          </cell>
-          <cell r="E281">
-            <v>6.6666666666666596E-2</v>
-          </cell>
-        </row>
-        <row r="282">
-          <cell r="B282">
-            <v>41790</v>
-          </cell>
-          <cell r="C282">
-            <v>0.266666666666666</v>
-          </cell>
-          <cell r="D282">
-            <v>0.1</v>
-          </cell>
-          <cell r="E282">
-            <v>6.6666666666666596E-2</v>
-          </cell>
-        </row>
-        <row r="283">
-          <cell r="B283">
-            <v>41820</v>
-          </cell>
-          <cell r="C283">
-            <v>0.2</v>
-          </cell>
-          <cell r="D283">
-            <v>6.6666666666666596E-2</v>
-          </cell>
-          <cell r="E283">
-            <v>6.6666666666666596E-2</v>
-          </cell>
-        </row>
-        <row r="284">
-          <cell r="B284">
-            <v>41851</v>
-          </cell>
-          <cell r="C284">
-            <v>0.1</v>
-          </cell>
-          <cell r="D284">
-            <v>0.16666666666666599</v>
-          </cell>
-          <cell r="E284">
-            <v>6.6666666666666596E-2</v>
-          </cell>
-        </row>
-        <row r="285">
-          <cell r="B285">
-            <v>41882</v>
-          </cell>
-          <cell r="C285">
-            <v>6.6666666666666596E-2</v>
-          </cell>
-          <cell r="D285">
-            <v>0.1</v>
-          </cell>
-          <cell r="E285">
-            <v>6.6666666666666596E-2</v>
-          </cell>
-        </row>
-        <row r="286">
-          <cell r="B286">
-            <v>41912</v>
-          </cell>
-          <cell r="C286">
-            <v>0.1</v>
-          </cell>
-          <cell r="D286">
-            <v>6.6666666666666596E-2</v>
-          </cell>
-          <cell r="E286">
-            <v>0.1</v>
-          </cell>
-        </row>
-        <row r="287">
-          <cell r="B287">
-            <v>41943</v>
-          </cell>
-          <cell r="C287">
-            <v>6.6666666666666596E-2</v>
-          </cell>
-          <cell r="D287">
-            <v>3.3333333333333298E-2</v>
-          </cell>
-          <cell r="E287">
-            <v>0.1</v>
-          </cell>
-        </row>
-        <row r="288">
-          <cell r="B288">
-            <v>41973</v>
-          </cell>
-          <cell r="C288">
-            <v>3.3333333333333298E-2</v>
-          </cell>
-          <cell r="D288">
-            <v>3.3333333333333298E-2</v>
-          </cell>
-          <cell r="E288">
-            <v>0.1</v>
-          </cell>
-        </row>
-        <row r="289">
-          <cell r="B289">
-            <v>42004</v>
-          </cell>
-          <cell r="C289">
-            <v>6.6666666666666596E-2</v>
-          </cell>
-          <cell r="D289">
-            <v>0.1</v>
-          </cell>
-          <cell r="E289">
-            <v>3.3333333333333298E-2</v>
-          </cell>
-        </row>
-        <row r="290">
-          <cell r="B290">
-            <v>42035</v>
-          </cell>
-          <cell r="C290">
-            <v>0.2</v>
-          </cell>
-          <cell r="D290">
-            <v>0.133333333333333</v>
-          </cell>
-          <cell r="E290">
-            <v>0.133333333333333</v>
-          </cell>
-        </row>
-        <row r="291">
-          <cell r="B291">
-            <v>42063</v>
-          </cell>
-          <cell r="C291">
-            <v>0.1</v>
-          </cell>
-          <cell r="D291">
-            <v>6.6666666666666596E-2</v>
-          </cell>
-          <cell r="E291">
-            <v>0.1</v>
-          </cell>
-        </row>
-        <row r="292">
-          <cell r="B292">
-            <v>42094</v>
-          </cell>
-          <cell r="C292">
-            <v>0.1</v>
-          </cell>
-          <cell r="D292">
-            <v>3.3333333333333298E-2</v>
-          </cell>
-          <cell r="E292">
-            <v>0.1</v>
-          </cell>
-        </row>
-        <row r="293">
-          <cell r="B293">
-            <v>42124</v>
-          </cell>
-          <cell r="C293">
-            <v>3.3333333333333298E-2</v>
-          </cell>
-          <cell r="D293">
-            <v>3.3333333333333298E-2</v>
-          </cell>
-          <cell r="E293">
-            <v>3.3333333333333298E-2</v>
-          </cell>
-        </row>
-        <row r="294">
-          <cell r="B294">
-            <v>42155</v>
-          </cell>
-          <cell r="C294">
-            <v>3.3333333333333298E-2</v>
-          </cell>
-          <cell r="D294">
-            <v>3.3333333333333298E-2</v>
-          </cell>
-          <cell r="E294">
-            <v>3.3333333333333298E-2</v>
-          </cell>
-        </row>
-        <row r="295">
-          <cell r="B295">
-            <v>42185</v>
-          </cell>
-          <cell r="C295">
-            <v>3.3333333333333298E-2</v>
-          </cell>
-          <cell r="D295">
-            <v>3.3333333333333298E-2</v>
-          </cell>
-          <cell r="E295">
-            <v>3.3333333333333298E-2</v>
-          </cell>
-        </row>
-        <row r="296">
-          <cell r="B296">
-            <v>42216</v>
-          </cell>
-          <cell r="C296">
-            <v>3.3333333333333298E-2</v>
-          </cell>
-          <cell r="D296">
-            <v>3.3333333333333298E-2</v>
-          </cell>
-          <cell r="E296">
-            <v>3.3333333333333298E-2</v>
-          </cell>
-        </row>
-        <row r="297">
-          <cell r="B297">
-            <v>42247</v>
-          </cell>
-          <cell r="C297">
-            <v>3.3333333333333298E-2</v>
-          </cell>
-          <cell r="D297">
-            <v>6.6666666666666596E-2</v>
-          </cell>
-          <cell r="E297">
-            <v>3.3333333333333298E-2</v>
-          </cell>
-        </row>
-        <row r="298">
-          <cell r="B298">
-            <v>42277</v>
-          </cell>
-          <cell r="C298">
-            <v>3.3333333333333298E-2</v>
-          </cell>
-          <cell r="D298">
-            <v>0.133333333333333</v>
-          </cell>
-          <cell r="E298">
-            <v>3.3333333333333298E-2</v>
-          </cell>
-        </row>
-        <row r="299">
-          <cell r="B299">
-            <v>42308</v>
-          </cell>
-          <cell r="C299">
-            <v>3.3333333333333298E-2</v>
-          </cell>
-          <cell r="D299">
-            <v>0.16666666666666599</v>
-          </cell>
-          <cell r="E299">
-            <v>3.3333333333333298E-2</v>
-          </cell>
-        </row>
-        <row r="300">
-          <cell r="B300">
-            <v>42338</v>
-          </cell>
-          <cell r="C300">
-            <v>0.1</v>
-          </cell>
-          <cell r="D300">
-            <v>0.4</v>
-          </cell>
-          <cell r="E300">
-            <v>6.6666666666666596E-2</v>
-          </cell>
-        </row>
-        <row r="301">
-          <cell r="B301">
-            <v>42369</v>
-          </cell>
-          <cell r="C301">
-            <v>0.133333333333333</v>
-          </cell>
-          <cell r="D301">
-            <v>0.133333333333333</v>
-          </cell>
-          <cell r="E301">
-            <v>6.6666666666666596E-2</v>
-          </cell>
-        </row>
-        <row r="302">
-          <cell r="B302">
-            <v>42400</v>
-          </cell>
-          <cell r="C302">
-            <v>0.16666666666666599</v>
-          </cell>
-          <cell r="D302">
-            <v>0.36666666666666597</v>
-          </cell>
-          <cell r="E302">
-            <v>0.2</v>
-          </cell>
-        </row>
-        <row r="303">
-          <cell r="B303">
-            <v>42429</v>
-          </cell>
-          <cell r="C303">
-            <v>0.133333333333333</v>
-          </cell>
-          <cell r="D303">
-            <v>0.4</v>
-          </cell>
-          <cell r="E303">
-            <v>0.2</v>
-          </cell>
-        </row>
-        <row r="304">
-          <cell r="B304">
-            <v>42460</v>
-          </cell>
-          <cell r="C304">
-            <v>6.6666666666666596E-2</v>
-          </cell>
-          <cell r="D304">
-            <v>0.36666666666666597</v>
-          </cell>
-          <cell r="E304">
-            <v>0.2</v>
-          </cell>
-        </row>
-        <row r="305">
-          <cell r="B305">
-            <v>42490</v>
-          </cell>
-          <cell r="C305">
-            <v>6.6666666666666596E-2</v>
-          </cell>
-          <cell r="D305">
-            <v>0.266666666666666</v>
-          </cell>
-          <cell r="E305">
-            <v>0.266666666666666</v>
-          </cell>
-        </row>
-        <row r="306">
-          <cell r="B306">
-            <v>42521</v>
-          </cell>
-          <cell r="C306">
-            <v>0.1</v>
-          </cell>
-          <cell r="D306">
-            <v>0.4</v>
-          </cell>
-          <cell r="E306">
-            <v>0.3</v>
-          </cell>
-        </row>
-        <row r="307">
-          <cell r="B307">
-            <v>42551</v>
-          </cell>
-          <cell r="C307">
-            <v>0.1</v>
-          </cell>
-          <cell r="D307">
-            <v>0.2</v>
-          </cell>
-          <cell r="E307">
-            <v>0.3</v>
-          </cell>
-        </row>
-        <row r="308">
-          <cell r="B308">
-            <v>42582</v>
-          </cell>
-          <cell r="C308">
-            <v>0.233333333333333</v>
-          </cell>
-          <cell r="D308">
-            <v>0.266666666666666</v>
-          </cell>
-          <cell r="E308">
-            <v>0.36666666666666597</v>
-          </cell>
-        </row>
-        <row r="309">
-          <cell r="B309">
-            <v>42613</v>
-          </cell>
-          <cell r="C309">
-            <v>0.3</v>
-          </cell>
-          <cell r="D309">
-            <v>0.266666666666666</v>
-          </cell>
-          <cell r="E309">
-            <v>0.33333333333333298</v>
-          </cell>
-        </row>
-        <row r="310">
-          <cell r="B310">
-            <v>42643</v>
-          </cell>
-          <cell r="C310">
-            <v>0.36666666666666597</v>
-          </cell>
-          <cell r="D310">
-            <v>0.33333333333333298</v>
-          </cell>
-          <cell r="E310">
-            <v>0.33333333333333298</v>
-          </cell>
-        </row>
-        <row r="311">
-          <cell r="B311">
-            <v>42674</v>
-          </cell>
-          <cell r="C311">
-            <v>0.36666666666666597</v>
-          </cell>
-          <cell r="D311">
-            <v>0.266666666666666</v>
-          </cell>
-          <cell r="E311">
-            <v>0.33333333333333298</v>
-          </cell>
-        </row>
-        <row r="312">
-          <cell r="B312">
-            <v>42704</v>
-          </cell>
-          <cell r="C312">
-            <v>0.46666666666666601</v>
-          </cell>
-          <cell r="D312">
-            <v>0.16666666666666599</v>
-          </cell>
-          <cell r="E312">
-            <v>0.36666666666666597</v>
-          </cell>
-        </row>
-        <row r="313">
-          <cell r="B313">
-            <v>42735</v>
-          </cell>
-          <cell r="C313">
-            <v>0.46666666666666601</v>
-          </cell>
-          <cell r="D313">
-            <v>0.266666666666666</v>
-          </cell>
-          <cell r="E313">
-            <v>0.4</v>
-          </cell>
-        </row>
-        <row r="314">
-          <cell r="B314">
-            <v>42766</v>
-          </cell>
-          <cell r="C314">
-            <v>0.46666666666666601</v>
-          </cell>
-          <cell r="D314">
-            <v>0.86666666666666603</v>
-          </cell>
-          <cell r="E314">
-            <v>0.83333333333333304</v>
-          </cell>
-        </row>
-        <row r="315">
-          <cell r="B315">
-            <v>42794</v>
-          </cell>
-          <cell r="C315">
-            <v>0.56666666666666599</v>
-          </cell>
-          <cell r="D315">
-            <v>1</v>
-          </cell>
-          <cell r="E315">
-            <v>0.96666666666666601</v>
-          </cell>
-        </row>
-        <row r="316">
-          <cell r="B316">
-            <v>42825</v>
-          </cell>
-          <cell r="C316">
-            <v>0.73333333333333295</v>
-          </cell>
-          <cell r="D316">
-            <v>1</v>
-          </cell>
-          <cell r="E316">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="317">
-          <cell r="B317">
-            <v>42855</v>
-          </cell>
-          <cell r="C317">
-            <v>0.8</v>
-          </cell>
-          <cell r="D317">
-            <v>1</v>
-          </cell>
-          <cell r="E317">
-            <v>0.9</v>
-          </cell>
-        </row>
-        <row r="318">
-          <cell r="B318">
-            <v>42886</v>
-          </cell>
-          <cell r="C318">
-            <v>0.76666666666666605</v>
-          </cell>
-          <cell r="D318">
-            <v>0.96666666666666601</v>
-          </cell>
-          <cell r="E318">
-            <v>0.86666666666666603</v>
-          </cell>
-        </row>
-        <row r="319">
-          <cell r="B319">
-            <v>42916</v>
-          </cell>
-          <cell r="C319">
-            <v>0.76666666666666605</v>
-          </cell>
-          <cell r="D319">
-            <v>0.96666666666666601</v>
-          </cell>
-          <cell r="E319">
-            <v>0.86666666666666603</v>
-          </cell>
-        </row>
-        <row r="320">
-          <cell r="B320">
-            <v>42947</v>
-          </cell>
-          <cell r="C320">
-            <v>0.76666666666666605</v>
-          </cell>
-          <cell r="D320">
-            <v>0.76666666666666605</v>
-          </cell>
-          <cell r="E320">
-            <v>0.8</v>
-          </cell>
-        </row>
-        <row r="321">
-          <cell r="B321">
-            <v>42978</v>
-          </cell>
-          <cell r="C321">
-            <v>0.76666666666666605</v>
-          </cell>
-          <cell r="D321">
-            <v>0.83333333333333304</v>
-          </cell>
-          <cell r="E321">
-            <v>0.83333333333333304</v>
-          </cell>
-        </row>
-        <row r="322">
-          <cell r="B322">
-            <v>43008</v>
-          </cell>
-          <cell r="C322">
-            <v>0.73333333333333295</v>
-          </cell>
-          <cell r="D322">
-            <v>0.8</v>
-          </cell>
-          <cell r="E322">
-            <v>0.9</v>
-          </cell>
-        </row>
-        <row r="323">
-          <cell r="B323">
-            <v>43039</v>
-          </cell>
-          <cell r="C323">
-            <v>0.7</v>
-          </cell>
-          <cell r="D323">
-            <v>0.73333333333333295</v>
-          </cell>
-          <cell r="E323">
-            <v>0.8</v>
-          </cell>
-        </row>
-        <row r="324">
-          <cell r="B324">
-            <v>43069</v>
-          </cell>
-          <cell r="C324">
-            <v>0.73333333333333295</v>
-          </cell>
-          <cell r="D324">
-            <v>0.83333333333333304</v>
-          </cell>
-          <cell r="E324">
-            <v>0.8</v>
-          </cell>
-        </row>
-        <row r="325">
-          <cell r="B325">
-            <v>43100</v>
-          </cell>
-          <cell r="C325">
-            <v>0.83333333333333304</v>
-          </cell>
-          <cell r="D325">
-            <v>0.5</v>
-          </cell>
-          <cell r="E325">
-            <v>0.73333333333333295</v>
-          </cell>
-        </row>
-        <row r="326">
-          <cell r="B326">
-            <v>43131</v>
-          </cell>
-          <cell r="C326">
-            <v>0.8</v>
-          </cell>
-          <cell r="D326">
-            <v>0.233333333333333</v>
-          </cell>
-          <cell r="E326">
-            <v>0.33333333333333298</v>
-          </cell>
-        </row>
-        <row r="327">
-          <cell r="B327">
-            <v>43159</v>
-          </cell>
-          <cell r="C327">
-            <v>0.76666666666666605</v>
-          </cell>
-          <cell r="D327">
-            <v>0.1</v>
-          </cell>
-          <cell r="E327">
-            <v>0.233333333333333</v>
-          </cell>
-        </row>
-        <row r="328">
-          <cell r="B328">
-            <v>43190</v>
-          </cell>
-          <cell r="C328">
-            <v>0.63333333333333297</v>
-          </cell>
-          <cell r="D328">
-            <v>0.2</v>
-          </cell>
-          <cell r="E328">
-            <v>0.233333333333333</v>
-          </cell>
-        </row>
-        <row r="329">
-          <cell r="B329">
-            <v>43220</v>
-          </cell>
-          <cell r="C329">
-            <v>0.7</v>
-          </cell>
-          <cell r="D329">
-            <v>0.233333333333333</v>
-          </cell>
-          <cell r="E329">
-            <v>0.4</v>
-          </cell>
-        </row>
-        <row r="330">
-          <cell r="B330">
-            <v>43251</v>
-          </cell>
-          <cell r="C330">
-            <v>0.66666666666666596</v>
-          </cell>
-          <cell r="D330">
-            <v>0.266666666666666</v>
-          </cell>
-          <cell r="E330">
-            <v>0.53333333333333299</v>
-          </cell>
-        </row>
-        <row r="331">
-          <cell r="B331">
-            <v>43281</v>
-          </cell>
-          <cell r="C331">
-            <v>0.6</v>
-          </cell>
-          <cell r="D331">
-            <v>0.53333333333333299</v>
-          </cell>
-          <cell r="E331">
-            <v>0.56666666666666599</v>
-          </cell>
-        </row>
-        <row r="332">
-          <cell r="B332">
-            <v>43312</v>
-          </cell>
-          <cell r="C332">
-            <v>0.6</v>
-          </cell>
-          <cell r="D332">
-            <v>0.9</v>
-          </cell>
-          <cell r="E332">
-            <v>0.56666666666666599</v>
-          </cell>
-        </row>
-        <row r="333">
-          <cell r="B333">
-            <v>43343</v>
-          </cell>
-          <cell r="C333">
-            <v>0.6</v>
-          </cell>
-          <cell r="D333">
-            <v>0.76666666666666605</v>
-          </cell>
-          <cell r="E333">
-            <v>0.56666666666666599</v>
-          </cell>
-        </row>
-        <row r="334">
-          <cell r="B334">
-            <v>43373</v>
-          </cell>
-          <cell r="C334">
-            <v>0.6</v>
-          </cell>
-          <cell r="D334">
-            <v>0.73333333333333295</v>
-          </cell>
-          <cell r="E334">
-            <v>0.56666666666666599</v>
-          </cell>
-        </row>
-        <row r="335">
-          <cell r="B335">
-            <v>43404</v>
-          </cell>
-          <cell r="C335">
-            <v>0.63333333333333297</v>
-          </cell>
-          <cell r="D335">
-            <v>0.66666666666666596</v>
-          </cell>
-          <cell r="E335">
-            <v>0.56666666666666599</v>
-          </cell>
-        </row>
-        <row r="336">
-          <cell r="B336">
-            <v>43434</v>
-          </cell>
-          <cell r="C336">
-            <v>0.66666666666666596</v>
-          </cell>
-          <cell r="D336">
-            <v>0.3</v>
-          </cell>
-          <cell r="E336">
-            <v>0.53333333333333299</v>
-          </cell>
-        </row>
-        <row r="337">
-          <cell r="B337">
-            <v>43465</v>
-          </cell>
-          <cell r="C337">
-            <v>0.76666666666666605</v>
-          </cell>
-          <cell r="D337">
-            <v>0.63333333333333297</v>
-          </cell>
-          <cell r="E337">
-            <v>0.43333333333333302</v>
-          </cell>
-        </row>
-        <row r="338">
-          <cell r="B338">
-            <v>43496</v>
-          </cell>
-          <cell r="C338">
-            <v>0.7</v>
-          </cell>
-          <cell r="D338">
-            <v>0.6</v>
-          </cell>
-          <cell r="E338">
-            <v>0.46666666666666601</v>
-          </cell>
-        </row>
-        <row r="339">
-          <cell r="B339">
-            <v>43524</v>
-          </cell>
-          <cell r="C339">
-            <v>0.73333333333333295</v>
-          </cell>
-          <cell r="D339">
-            <v>0.83333333333333304</v>
-          </cell>
-          <cell r="E339">
-            <v>0.7</v>
-          </cell>
-        </row>
-        <row r="340">
-          <cell r="B340">
-            <v>43555</v>
-          </cell>
-          <cell r="C340">
-            <v>0.86666666666666603</v>
-          </cell>
-          <cell r="D340">
-            <v>0.93333333333333302</v>
-          </cell>
-          <cell r="E340">
-            <v>0.96666666666666601</v>
-          </cell>
-        </row>
-        <row r="341">
-          <cell r="B341">
-            <v>43585</v>
-          </cell>
-          <cell r="C341">
-            <v>0.9</v>
-          </cell>
-          <cell r="D341">
-            <v>0.83333333333333304</v>
-          </cell>
-          <cell r="E341">
-            <v>0.83333333333333304</v>
-          </cell>
-        </row>
-        <row r="342">
-          <cell r="B342">
-            <v>43616</v>
-          </cell>
-          <cell r="C342">
-            <v>0.9</v>
-          </cell>
-          <cell r="D342">
-            <v>0.8</v>
-          </cell>
-          <cell r="E342">
-            <v>0.8</v>
-          </cell>
-        </row>
-        <row r="343">
-          <cell r="B343">
-            <v>43646</v>
-          </cell>
-          <cell r="C343">
-            <v>0.9</v>
-          </cell>
-          <cell r="D343">
-            <v>0.86666666666666603</v>
-          </cell>
-          <cell r="E343">
-            <v>0.8</v>
-          </cell>
-        </row>
-        <row r="344">
-          <cell r="B344">
-            <v>43677</v>
-          </cell>
-          <cell r="C344">
-            <v>0.9</v>
-          </cell>
-          <cell r="D344">
-            <v>0.86666666666666603</v>
-          </cell>
-          <cell r="E344">
-            <v>0.86666666666666603</v>
-          </cell>
-        </row>
-        <row r="345">
-          <cell r="B345">
-            <v>43708</v>
-          </cell>
-          <cell r="C345">
-            <v>0.9</v>
-          </cell>
-          <cell r="D345">
-            <v>0.86666666666666603</v>
-          </cell>
-          <cell r="E345">
-            <v>0.9</v>
-          </cell>
-        </row>
-        <row r="346">
-          <cell r="B346">
-            <v>43738</v>
-          </cell>
-          <cell r="C346">
-            <v>0.86666666666666603</v>
-          </cell>
-          <cell r="D346">
-            <v>0.86666666666666603</v>
-          </cell>
-          <cell r="E346">
-            <v>0.83333333333333304</v>
-          </cell>
-        </row>
-        <row r="347">
-          <cell r="B347">
-            <v>43769</v>
-          </cell>
-          <cell r="C347">
-            <v>0.9</v>
-          </cell>
-          <cell r="D347">
-            <v>0.8</v>
-          </cell>
-          <cell r="E347">
-            <v>0.83333333333333304</v>
-          </cell>
-        </row>
-        <row r="348">
-          <cell r="B348">
-            <v>43799</v>
-          </cell>
-          <cell r="C348">
-            <v>0.9</v>
-          </cell>
-          <cell r="D348">
-            <v>0.5</v>
-          </cell>
-          <cell r="E348">
-            <v>0.76666666666666605</v>
-          </cell>
-        </row>
-        <row r="349">
-          <cell r="B349">
-            <v>43830</v>
-          </cell>
-          <cell r="C349">
-            <v>0.93333333333333302</v>
-          </cell>
-          <cell r="D349">
-            <v>0.8</v>
-          </cell>
-          <cell r="E349">
-            <v>0.76666666666666605</v>
-          </cell>
-        </row>
-        <row r="350">
-          <cell r="B350">
-            <v>43861</v>
-          </cell>
-          <cell r="C350">
-            <v>0.93333333333333302</v>
-          </cell>
-          <cell r="D350">
-            <v>0.5</v>
-          </cell>
-          <cell r="E350">
-            <v>0.63333333333333297</v>
-          </cell>
-        </row>
-        <row r="351">
-          <cell r="B351">
-            <v>43890</v>
-          </cell>
-          <cell r="C351">
-            <v>0.86666666666666603</v>
-          </cell>
-          <cell r="D351">
-            <v>0.3</v>
-          </cell>
-          <cell r="E351">
-            <v>0.4</v>
-          </cell>
-        </row>
-        <row r="352">
-          <cell r="B352">
-            <v>43921</v>
-          </cell>
-          <cell r="C352">
-            <v>0.8</v>
-          </cell>
-          <cell r="D352">
-            <v>0.266666666666666</v>
-          </cell>
-          <cell r="E352">
-            <v>0.266666666666666</v>
-          </cell>
-        </row>
-        <row r="353">
-          <cell r="B353">
-            <v>43951</v>
-          </cell>
-          <cell r="C353">
-            <v>0.83333333333333304</v>
-          </cell>
-          <cell r="D353">
-            <v>0.4</v>
-          </cell>
-          <cell r="E353">
-            <v>0.3</v>
-          </cell>
-        </row>
-        <row r="354">
-          <cell r="B354">
-            <v>43982</v>
-          </cell>
-          <cell r="C354">
-            <v>0.86666666666666603</v>
-          </cell>
-          <cell r="D354">
-            <v>0.33333333333333298</v>
-          </cell>
-          <cell r="E354">
-            <v>0.33333333333333298</v>
-          </cell>
-        </row>
-        <row r="355">
-          <cell r="B355">
-            <v>44012</v>
-          </cell>
-          <cell r="C355">
-            <v>0.86666666666666603</v>
-          </cell>
-          <cell r="D355">
-            <v>0.6</v>
-          </cell>
-          <cell r="E355">
-            <v>0.4</v>
-          </cell>
-        </row>
-        <row r="356">
-          <cell r="B356">
-            <v>44043</v>
-          </cell>
-          <cell r="C356">
-            <v>0.83333333333333304</v>
-          </cell>
-          <cell r="D356">
-            <v>0.63333333333333297</v>
-          </cell>
-          <cell r="E356">
-            <v>0.46666666666666601</v>
-          </cell>
-        </row>
-        <row r="357">
-          <cell r="B357">
-            <v>44074</v>
-          </cell>
-          <cell r="C357">
-            <v>0.86666666666666603</v>
-          </cell>
-          <cell r="D357">
-            <v>0.5</v>
-          </cell>
-          <cell r="E357">
-            <v>0.46666666666666601</v>
-          </cell>
-        </row>
-        <row r="358">
-          <cell r="B358">
-            <v>44104</v>
-          </cell>
-          <cell r="C358">
-            <v>0.9</v>
-          </cell>
-          <cell r="D358">
-            <v>0.7</v>
-          </cell>
-          <cell r="E358">
-            <v>0.46666666666666601</v>
-          </cell>
-        </row>
-        <row r="359">
-          <cell r="B359">
-            <v>44135</v>
-          </cell>
-          <cell r="C359">
-            <v>0.8</v>
-          </cell>
-          <cell r="D359">
-            <v>0.4</v>
-          </cell>
-          <cell r="E359">
-            <v>0.46666666666666601</v>
-          </cell>
-        </row>
-        <row r="360">
-          <cell r="B360">
-            <v>44165</v>
-          </cell>
-          <cell r="C360">
-            <v>0.83333333333333304</v>
-          </cell>
-          <cell r="D360">
-            <v>0.1</v>
-          </cell>
-          <cell r="E360">
-            <v>0.43333333333333302</v>
-          </cell>
-        </row>
-        <row r="361">
-          <cell r="B361">
-            <v>44196</v>
-          </cell>
-          <cell r="C361">
-            <v>0.86666666666666603</v>
-          </cell>
-          <cell r="D361">
-            <v>6.6666666666666596E-2</v>
-          </cell>
-          <cell r="E361">
-            <v>0.3</v>
-          </cell>
-        </row>
-        <row r="362">
-          <cell r="B362">
-            <v>44227</v>
-          </cell>
-          <cell r="C362">
-            <v>0.73333333333333295</v>
-          </cell>
-          <cell r="D362">
-            <v>0.133333333333333</v>
-          </cell>
-          <cell r="E362">
-            <v>0.2</v>
-          </cell>
-        </row>
-        <row r="363">
-          <cell r="B363">
-            <v>44255</v>
-          </cell>
-          <cell r="C363">
-            <v>0.7</v>
-          </cell>
-          <cell r="D363">
-            <v>0.266666666666666</v>
-          </cell>
-          <cell r="E363">
-            <v>0.2</v>
-          </cell>
-        </row>
-        <row r="364">
-          <cell r="B364">
-            <v>44286</v>
-          </cell>
-          <cell r="C364">
-            <v>0.53333333333333299</v>
-          </cell>
-          <cell r="D364">
-            <v>0.2</v>
-          </cell>
-          <cell r="E364">
-            <v>0.133333333333333</v>
-          </cell>
-        </row>
-        <row r="365">
-          <cell r="B365">
-            <v>44316</v>
-          </cell>
-          <cell r="C365">
-            <v>0.5</v>
-          </cell>
-          <cell r="D365">
-            <v>0.133333333333333</v>
-          </cell>
-          <cell r="E365">
-            <v>0.133333333333333</v>
-          </cell>
-        </row>
-        <row r="366">
-          <cell r="B366">
-            <v>44347</v>
-          </cell>
-          <cell r="C366">
-            <v>0.53333333333333299</v>
-          </cell>
-          <cell r="D366">
-            <v>0.1</v>
-          </cell>
-          <cell r="E366">
-            <v>6.6666666666666596E-2</v>
-          </cell>
-        </row>
-        <row r="367">
-          <cell r="B367">
-            <v>44377</v>
-          </cell>
-          <cell r="C367">
-            <v>0.5</v>
-          </cell>
-          <cell r="D367">
-            <v>0.2</v>
-          </cell>
-          <cell r="E367">
-            <v>3.3333333333333298E-2</v>
-          </cell>
-        </row>
-        <row r="368">
-          <cell r="B368">
-            <v>44408</v>
-          </cell>
-          <cell r="C368">
-            <v>0.46666666666666601</v>
-          </cell>
-          <cell r="D368">
-            <v>0.1</v>
-          </cell>
-          <cell r="E368">
-            <v>6.6666666666666596E-2</v>
-          </cell>
-        </row>
-        <row r="369">
-          <cell r="B369">
-            <v>44439</v>
-          </cell>
-          <cell r="C369">
-            <v>0.36666666666666597</v>
-          </cell>
-          <cell r="D369">
-            <v>0.1</v>
-          </cell>
-          <cell r="E369">
-            <v>6.6666666666666596E-2</v>
-          </cell>
-        </row>
-        <row r="370">
-          <cell r="B370">
-            <v>44469</v>
-          </cell>
-          <cell r="C370">
-            <v>0.36666666666666597</v>
-          </cell>
-          <cell r="D370">
-            <v>0.133333333333333</v>
-          </cell>
-          <cell r="E370">
-            <v>6.6666666666666596E-2</v>
-          </cell>
-        </row>
-        <row r="371">
-          <cell r="B371">
-            <v>44500</v>
-          </cell>
-          <cell r="C371">
-            <v>0.4</v>
-          </cell>
-          <cell r="D371">
-            <v>0.33333333333333298</v>
-          </cell>
-          <cell r="E371">
-            <v>6.6666666666666596E-2</v>
-          </cell>
-        </row>
-        <row r="372">
-          <cell r="B372">
-            <v>44530</v>
-          </cell>
-          <cell r="C372">
-            <v>0.46666666666666601</v>
-          </cell>
-          <cell r="D372">
-            <v>0.133333333333333</v>
-          </cell>
-          <cell r="E372">
-            <v>0.1</v>
-          </cell>
-        </row>
-        <row r="373">
-          <cell r="B373">
-            <v>44561</v>
-          </cell>
-          <cell r="C373">
-            <v>0.43333333333333302</v>
-          </cell>
-          <cell r="D373">
-            <v>0.6</v>
-          </cell>
-          <cell r="E373">
-            <v>0.2</v>
-          </cell>
-        </row>
-        <row r="374">
-          <cell r="B374">
-            <v>44592</v>
-          </cell>
-          <cell r="C374">
-            <v>0.53333333333333299</v>
-          </cell>
-          <cell r="D374">
-            <v>0.73333333333333295</v>
-          </cell>
-          <cell r="E374">
-            <v>0.266666666666666</v>
-          </cell>
-        </row>
-        <row r="375">
-          <cell r="B375">
-            <v>44620</v>
-          </cell>
-          <cell r="C375">
-            <v>0.5</v>
-          </cell>
-          <cell r="D375">
-            <v>0.5</v>
-          </cell>
-          <cell r="E375">
-            <v>0.16666666666666599</v>
-          </cell>
-        </row>
-        <row r="376">
-          <cell r="B376">
-            <v>44651</v>
-          </cell>
-          <cell r="C376">
-            <v>0.36666666666666597</v>
-          </cell>
-          <cell r="D376">
-            <v>0.36666666666666597</v>
-          </cell>
-          <cell r="E376">
-            <v>0.133333333333333</v>
-          </cell>
-        </row>
-        <row r="377">
-          <cell r="B377">
-            <v>44681</v>
-          </cell>
-          <cell r="C377">
-            <v>0.266666666666666</v>
-          </cell>
-          <cell r="D377">
-            <v>3.3333333333333298E-2</v>
-          </cell>
-          <cell r="E377">
-            <v>6.6666666666666596E-2</v>
-          </cell>
-        </row>
-        <row r="378">
-          <cell r="B378">
-            <v>44712</v>
-          </cell>
-          <cell r="C378">
-            <v>0.2</v>
-          </cell>
-          <cell r="D378">
-            <v>0.1</v>
-          </cell>
-          <cell r="E378">
-            <v>6.6666666666666596E-2</v>
-          </cell>
-        </row>
-        <row r="379">
-          <cell r="B379">
-            <v>44742</v>
-          </cell>
-          <cell r="C379">
-            <v>0.2</v>
-          </cell>
-          <cell r="D379">
-            <v>0.133333333333333</v>
-          </cell>
-          <cell r="E379">
-            <v>0.133333333333333</v>
-          </cell>
-        </row>
-        <row r="380">
-          <cell r="B380">
-            <v>44773</v>
-          </cell>
-          <cell r="C380">
-            <v>0.16666666666666599</v>
-          </cell>
-          <cell r="D380">
-            <v>0.16666666666666599</v>
-          </cell>
-          <cell r="E380">
-            <v>0.133333333333333</v>
-          </cell>
-        </row>
-        <row r="381">
-          <cell r="B381">
-            <v>44804</v>
-          </cell>
-          <cell r="C381">
-            <v>0.2</v>
-          </cell>
-          <cell r="D381">
-            <v>0.2</v>
-          </cell>
-          <cell r="E381">
-            <v>0.133333333333333</v>
-          </cell>
-        </row>
-        <row r="382">
-          <cell r="B382">
-            <v>44834</v>
-          </cell>
-          <cell r="C382">
-            <v>0.2</v>
-          </cell>
-          <cell r="D382">
-            <v>0.33333333333333298</v>
-          </cell>
-          <cell r="E382">
-            <v>0.2</v>
-          </cell>
-        </row>
-        <row r="383">
-          <cell r="B383">
-            <v>44865</v>
-          </cell>
-          <cell r="C383">
-            <v>0.266666666666666</v>
-          </cell>
-          <cell r="D383">
-            <v>0.33333333333333298</v>
-          </cell>
-          <cell r="E383">
-            <v>0.2</v>
-          </cell>
-        </row>
-        <row r="384">
-          <cell r="B384">
-            <v>44895</v>
-          </cell>
-          <cell r="C384">
-            <v>0.266666666666666</v>
-          </cell>
-          <cell r="D384">
-            <v>0.73333333333333295</v>
-          </cell>
-          <cell r="E384">
-            <v>0.16666666666666599</v>
-          </cell>
-        </row>
-        <row r="385">
-          <cell r="B385">
-            <v>44926</v>
-          </cell>
-          <cell r="C385">
-            <v>0.266666666666666</v>
-          </cell>
-          <cell r="D385">
-            <v>0.83333333333333304</v>
-          </cell>
-          <cell r="E385">
-            <v>0.2</v>
-          </cell>
-        </row>
-        <row r="386">
-          <cell r="B386">
-            <v>44957</v>
-          </cell>
-          <cell r="C386">
-            <v>0.3</v>
-          </cell>
-          <cell r="D386">
-            <v>1</v>
-          </cell>
-          <cell r="E386">
-            <v>0.53333333333333299</v>
-          </cell>
-        </row>
-        <row r="387">
-          <cell r="B387">
-            <v>44985</v>
-          </cell>
-          <cell r="C387">
-            <v>0.43333333333333302</v>
-          </cell>
-          <cell r="D387">
-            <v>1</v>
-          </cell>
-          <cell r="E387">
-            <v>0.83333333333333304</v>
-          </cell>
-        </row>
-        <row r="388">
-          <cell r="B388">
-            <v>45016</v>
-          </cell>
-          <cell r="C388">
-            <v>0.36666666666666597</v>
-          </cell>
-          <cell r="D388">
-            <v>1</v>
-          </cell>
-          <cell r="E388">
-            <v>0.93333333333333302</v>
-          </cell>
-        </row>
-        <row r="389">
-          <cell r="B389">
-            <v>45046</v>
-          </cell>
-          <cell r="C389">
-            <v>0.7</v>
-          </cell>
-          <cell r="D389">
-            <v>1</v>
-          </cell>
-          <cell r="E389">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="390">
-          <cell r="B390">
-            <v>45077</v>
-          </cell>
-          <cell r="C390">
-            <v>0.86666666666666603</v>
-          </cell>
-          <cell r="D390">
-            <v>1</v>
-          </cell>
-          <cell r="E390">
-            <v>0.96666666666666601</v>
-          </cell>
-        </row>
-        <row r="391">
-          <cell r="B391">
-            <v>45107</v>
-          </cell>
-          <cell r="C391">
-            <v>0.83333333333333304</v>
-          </cell>
-          <cell r="D391">
-            <v>0.96666666666666601</v>
-          </cell>
-          <cell r="E391">
-            <v>0.86666666666666603</v>
-          </cell>
-        </row>
-        <row r="392">
-          <cell r="B392">
-            <v>45138</v>
-          </cell>
-          <cell r="C392">
-            <v>0.8</v>
-          </cell>
-          <cell r="D392">
-            <v>0.4</v>
-          </cell>
-          <cell r="E392">
-            <v>0.86666666666666603</v>
-          </cell>
-        </row>
-        <row r="393">
-          <cell r="B393">
-            <v>45169</v>
-          </cell>
-          <cell r="C393">
-            <v>0.86666666666666603</v>
-          </cell>
-          <cell r="D393">
-            <v>0.93333333333333302</v>
-          </cell>
-          <cell r="E393">
-            <v>0.9</v>
-          </cell>
-        </row>
-        <row r="394">
-          <cell r="B394">
-            <v>45199</v>
-          </cell>
-          <cell r="C394">
-            <v>0.9</v>
-          </cell>
-          <cell r="D394">
-            <v>0.96666666666666601</v>
-          </cell>
-          <cell r="E394">
-            <v>0.9</v>
-          </cell>
-        </row>
-        <row r="395">
-          <cell r="B395">
-            <v>45230</v>
-          </cell>
-          <cell r="C395">
-            <v>0.9</v>
-          </cell>
-          <cell r="D395">
-            <v>0.96666666666666601</v>
-          </cell>
-          <cell r="E395">
-            <v>0.9</v>
-          </cell>
-        </row>
-        <row r="396">
-          <cell r="B396">
-            <v>45260</v>
-          </cell>
-          <cell r="C396">
-            <v>0.93333333333333302</v>
-          </cell>
-          <cell r="D396">
-            <v>0.83333333333333304</v>
-          </cell>
-          <cell r="E396">
-            <v>0.8</v>
-          </cell>
-        </row>
-        <row r="397">
-          <cell r="B397">
-            <v>45291</v>
-          </cell>
-          <cell r="C397">
-            <v>0.93333333333333302</v>
-          </cell>
-          <cell r="D397">
-            <v>0.36666666666666597</v>
-          </cell>
-          <cell r="E397">
-            <v>0.7</v>
-          </cell>
-        </row>
-        <row r="398">
-          <cell r="B398">
-            <v>45322</v>
-          </cell>
-          <cell r="C398">
-            <v>0.93333333333333302</v>
-          </cell>
-          <cell r="D398">
-            <v>0.33333333333333298</v>
-          </cell>
-          <cell r="E398">
-            <v>0.46666666666666601</v>
-          </cell>
-        </row>
-        <row r="399">
-          <cell r="B399">
-            <v>45351</v>
-          </cell>
-          <cell r="C399">
-            <v>0.9</v>
-          </cell>
-          <cell r="D399">
-            <v>0.43333333333333302</v>
-          </cell>
-          <cell r="E399">
-            <v>0.53333333333333299</v>
-          </cell>
-        </row>
-        <row r="400">
-          <cell r="B400">
-            <v>45382</v>
-          </cell>
-          <cell r="C400">
-            <v>0.96666666666666601</v>
-          </cell>
-          <cell r="D400">
-            <v>0.5</v>
-          </cell>
-          <cell r="E400">
-            <v>0.56666666666666599</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="3"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="DV + 2"/>
-      <sheetName val="DV + 1"/>
-      <sheetName val="DWR portfolio"/>
-      <sheetName val="SWP-WY"/>
-      <sheetName val="SWP-CY"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -53689,8 +48005,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3884484-B4C4-4693-9156-05161D7CEA1B}">
   <dimension ref="A1:M60"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -53740,7 +48056,7 @@
         <v>2002</v>
       </c>
       <c r="B2" s="4">
-        <v>1749.0462848769303</v>
+        <v>1716.4334476389881</v>
       </c>
       <c r="C2">
         <v>1897.6</v>
@@ -53758,7 +48074,7 @@
         <v>2002</v>
       </c>
       <c r="H2" s="4">
-        <v>1142.3482696273682</v>
+        <v>1028.14713879792</v>
       </c>
       <c r="I2">
         <v>1309.3</v>
@@ -53767,7 +48083,7 @@
         <v>2002</v>
       </c>
       <c r="K2" s="4">
-        <v>1593.8016967556446</v>
+        <v>1573.0190767197876</v>
       </c>
       <c r="L2">
         <v>1533.5</v>
@@ -53778,7 +48094,7 @@
         <v>2003</v>
       </c>
       <c r="B3" s="4">
-        <v>1554.5474245844464</v>
+        <v>1495.3477586044467</v>
       </c>
       <c r="C3">
         <v>1542.69999999999</v>
@@ -53796,7 +48112,7 @@
         <v>2003</v>
       </c>
       <c r="H3" s="4">
-        <v>946.46291366323021</v>
+        <v>976.31955730309369</v>
       </c>
       <c r="I3">
         <v>756.6</v>
@@ -53805,7 +48121,7 @@
         <v>2003</v>
       </c>
       <c r="K3" s="4">
-        <v>1601.0668585104715</v>
+        <v>1597.3040166677811</v>
       </c>
       <c r="L3">
         <v>1712.8999999999901</v>
@@ -53816,7 +48132,7 @@
         <v>2004</v>
       </c>
       <c r="B4" s="4">
-        <v>1605.3645841582415</v>
+        <v>1598.785708395257</v>
       </c>
       <c r="C4">
         <v>1476.3</v>
@@ -53834,7 +48150,7 @@
         <v>2004</v>
       </c>
       <c r="H4" s="4">
-        <v>1014.8882686194825</v>
+        <v>969.52398367193041</v>
       </c>
       <c r="I4">
         <v>1098.5</v>
@@ -53843,7 +48159,7 @@
         <v>2004</v>
       </c>
       <c r="K4" s="4">
-        <v>1566.7126989032943</v>
+        <v>1600.4882304162356</v>
       </c>
       <c r="L4">
         <v>1836.19999999999</v>
@@ -53854,7 +48170,7 @@
         <v>2005</v>
       </c>
       <c r="B5" s="4">
-        <v>1349.2581465860865</v>
+        <v>1379.3710498911464</v>
       </c>
       <c r="C5">
         <v>1237.5999999999999</v>
@@ -53872,7 +48188,7 @@
         <v>2005</v>
       </c>
       <c r="H5" s="4">
-        <v>798.78225488250951</v>
+        <v>889.0776867781201</v>
       </c>
       <c r="I5">
         <v>771.69999999999902</v>
@@ -53881,7 +48197,7 @@
         <v>2005</v>
       </c>
       <c r="K5" s="4">
-        <v>1633.6355360672883</v>
+        <v>1638.1830915839259</v>
       </c>
       <c r="L5">
         <v>1528.5</v>
@@ -53892,7 +48208,7 @@
         <v>2006</v>
       </c>
       <c r="B6" s="4">
-        <v>1449.6143632626131</v>
+        <v>1436.0742778745366</v>
       </c>
       <c r="C6">
         <v>1739.9</v>
@@ -53910,7 +48226,7 @@
         <v>2006</v>
       </c>
       <c r="H6" s="4">
-        <v>781.65782103417746</v>
+        <v>812.31673660451281</v>
       </c>
       <c r="I6">
         <v>806.7</v>
@@ -53919,7 +48235,7 @@
         <v>2006</v>
       </c>
       <c r="K6" s="4">
-        <v>1655.0357995460026</v>
+        <v>1674.1511034330429</v>
       </c>
       <c r="L6">
         <v>1469.7</v>
@@ -53930,7 +48246,7 @@
         <v>2007</v>
       </c>
       <c r="B7" s="4">
-        <v>1818.5900345213984</v>
+        <v>1867.3336554573864</v>
       </c>
       <c r="C7">
         <v>1802.4</v>
@@ -53948,7 +48264,7 @@
         <v>2007</v>
       </c>
       <c r="H7" s="4">
-        <v>1216.0045286353475</v>
+        <v>983.25453699482807</v>
       </c>
       <c r="I7">
         <v>1079.4000000000001</v>
@@ -53957,7 +48273,7 @@
         <v>2007</v>
       </c>
       <c r="K7" s="4">
-        <v>1626.9474102172796</v>
+        <v>1594.0544811792086</v>
       </c>
       <c r="L7">
         <v>1596.4</v>
@@ -53968,7 +48284,7 @@
         <v>2008</v>
       </c>
       <c r="B8" s="4">
-        <v>1742.5380486732936</v>
+        <v>1536.2818368944984</v>
       </c>
       <c r="C8">
         <v>1697.1</v>
@@ -53986,7 +48302,7 @@
         <v>2008</v>
       </c>
       <c r="H8" s="4">
-        <v>1154.7247747013685</v>
+        <v>1215.8385713100911</v>
       </c>
       <c r="I8">
         <v>1254.4000000000001</v>
@@ -53995,7 +48311,7 @@
         <v>2008</v>
       </c>
       <c r="K8" s="4">
-        <v>1018.0230175365045</v>
+        <v>905.40250124420629</v>
       </c>
       <c r="L8">
         <v>1269.2</v>
@@ -54006,7 +48322,7 @@
         <v>2009</v>
       </c>
       <c r="B9" s="4">
-        <v>1695.7925395300172</v>
+        <v>1598.3144264095672</v>
       </c>
       <c r="C9">
         <v>1744.5</v>
@@ -54024,7 +48340,7 @@
         <v>2009</v>
       </c>
       <c r="H9" s="4">
-        <v>1267.2526456698665</v>
+        <v>1307.3353940657976</v>
       </c>
       <c r="I9">
         <v>1216.4000000000001</v>
@@ -54033,7 +48349,7 @@
         <v>2009</v>
       </c>
       <c r="K9" s="4">
-        <v>911.54617452439118</v>
+        <v>862.52967596532756</v>
       </c>
       <c r="L9">
         <v>985.7</v>
@@ -54044,7 +48360,7 @@
         <v>2010</v>
       </c>
       <c r="B10" s="4">
-        <v>1303.1128720852726</v>
+        <v>1412.133378048276</v>
       </c>
       <c r="C10">
         <v>1408.2</v>
@@ -54062,7 +48378,7 @@
         <v>2010</v>
       </c>
       <c r="H10" s="4">
-        <v>926.09567727875628</v>
+        <v>1028.14713879792</v>
       </c>
       <c r="I10">
         <v>987.8</v>
@@ -54071,7 +48387,7 @@
         <v>2010</v>
       </c>
       <c r="K10" s="4">
-        <v>916.53326920057452</v>
+        <v>993.34940202262635</v>
       </c>
       <c r="L10">
         <v>826.9</v>
@@ -54082,7 +48398,7 @@
         <v>2011</v>
       </c>
       <c r="B11" s="4">
-        <v>1345.6593727370139</v>
+        <v>1393.5363480182486</v>
       </c>
       <c r="C11">
         <v>1351</v>
@@ -54100,7 +48416,7 @@
         <v>2011</v>
       </c>
       <c r="H11" s="4">
-        <v>757.02140269206177</v>
+        <v>819.79406774811514</v>
       </c>
       <c r="I11">
         <v>955.8</v>
@@ -54109,7 +48425,7 @@
         <v>2011</v>
       </c>
       <c r="K11" s="4">
-        <v>1053.4290711421918</v>
+        <v>1090.9777626847892</v>
       </c>
       <c r="L11">
         <v>900.69999999999902</v>
@@ -54120,7 +48436,7 @@
         <v>2012</v>
       </c>
       <c r="B12" s="4">
-        <v>1658.264469622997</v>
+        <v>1547.8947954245805</v>
       </c>
       <c r="C12">
         <v>1484.1</v>
@@ -54138,7 +48454,7 @@
         <v>2012</v>
       </c>
       <c r="H12" s="4">
-        <v>961.6943725265894</v>
+        <v>946.76078316846395</v>
       </c>
       <c r="I12">
         <v>902.19999999999902</v>
@@ -54147,7 +48463,7 @@
         <v>2012</v>
       </c>
       <c r="K12" s="4">
-        <v>1058.6269154361207</v>
+        <v>1031.4847481460931</v>
       </c>
       <c r="L12">
         <v>1170.3999999999901</v>
@@ -54158,7 +48474,7 @@
         <v>2013</v>
       </c>
       <c r="B13" s="4">
-        <v>1797.8058111335558</v>
+        <v>1837.8973577154559</v>
       </c>
       <c r="C13">
         <v>1824.2</v>
@@ -54176,7 +48492,7 @@
         <v>2013</v>
       </c>
       <c r="H13" s="4">
-        <v>1279.9145088009539</v>
+        <v>1096.6550207866449</v>
       </c>
       <c r="I13">
         <v>1304.0999999999999</v>
@@ -54185,7 +48501,7 @@
         <v>2013</v>
       </c>
       <c r="K13" s="4">
-        <v>988.86945281799353</v>
+        <v>961.24854467842454</v>
       </c>
       <c r="L13">
         <v>1060.8</v>
@@ -54196,7 +48512,7 @@
         <v>2014</v>
       </c>
       <c r="B14" s="4">
-        <v>1913.6584939456261</v>
+        <v>1897.6209851528788</v>
       </c>
       <c r="C14">
         <v>1986.1</v>
@@ -54214,7 +48530,7 @@
         <v>2014</v>
       </c>
       <c r="H14" s="4">
-        <v>1648.5034551788337</v>
+        <v>1532.6508640549739</v>
       </c>
       <c r="I14">
         <v>1730.3</v>
@@ -54223,7 +48539,7 @@
         <v>2014</v>
       </c>
       <c r="K14" s="4">
-        <v>887.26885361043469</v>
+        <v>756.95321454801592</v>
       </c>
       <c r="L14">
         <v>642.9</v>
@@ -54234,7 +48550,7 @@
         <v>2015</v>
       </c>
       <c r="B15" s="4">
-        <v>1450.2939865736346</v>
+        <v>1635.9439813347828</v>
       </c>
       <c r="C15">
         <v>1462.3</v>
@@ -54252,7 +48568,7 @@
         <v>2015</v>
       </c>
       <c r="H15" s="4">
-        <v>1589.5159945841101</v>
+        <v>1702.3922866444746</v>
       </c>
       <c r="I15">
         <v>1573.2</v>
@@ -54261,7 +48577,7 @@
         <v>2015</v>
       </c>
       <c r="K15" s="4">
-        <v>570.54860692025022</v>
+        <v>677.41718111985926</v>
       </c>
       <c r="L15">
         <v>456.4</v>
@@ -54272,7 +48588,7 @@
         <v>2016</v>
       </c>
       <c r="B16" s="4">
-        <v>1424.1330338746106</v>
+        <v>1616.2630694875297</v>
       </c>
       <c r="C16">
         <v>1331</v>
@@ -54290,7 +48606,7 @@
         <v>2016</v>
       </c>
       <c r="H16" s="4">
-        <v>1260.2921376328095</v>
+        <v>1280.9790600918675</v>
       </c>
       <c r="I16">
         <v>1186.5999999999999</v>
@@ -54299,7 +48615,7 @@
         <v>2016</v>
       </c>
       <c r="K16" s="4">
-        <v>728.02709973884214</v>
+        <v>874.87950918820411</v>
       </c>
       <c r="L16">
         <v>917.3</v>
@@ -54310,7 +48626,7 @@
         <v>2018</v>
       </c>
       <c r="B17" s="4">
-        <v>1619.1916970203386</v>
+        <v>1558.4587440893811</v>
       </c>
       <c r="C17">
         <v>1579.3</v>
@@ -54328,7 +48644,7 @@
         <v>2018</v>
       </c>
       <c r="H17" s="4">
-        <v>1000.4626271000648</v>
+        <v>988.55075609473397</v>
       </c>
       <c r="I17">
         <v>917.1</v>
@@ -54337,7 +48653,7 @@
         <v>2018</v>
       </c>
       <c r="K17" s="4">
-        <v>1008.5588266323894</v>
+        <v>1011.9031478924898</v>
       </c>
       <c r="L17">
         <v>1042.9000000000001</v>
@@ -54348,7 +48664,7 @@
         <v>2019</v>
       </c>
       <c r="B18" s="4">
-        <v>1358.6620069180744</v>
+        <v>1392.5894089218107</v>
       </c>
       <c r="C18">
         <v>1414.9</v>
@@ -54366,7 +48682,7 @@
         <v>2019</v>
       </c>
       <c r="H18" s="4">
-        <v>802.29449394925211</v>
+        <v>881.21527648156109</v>
       </c>
       <c r="I18">
         <v>775.4</v>
@@ -54375,7 +48691,7 @@
         <v>2019</v>
       </c>
       <c r="K18" s="4">
-        <v>1039.4396412981057</v>
+        <v>1062.1975201459047</v>
       </c>
       <c r="L18">
         <v>921.5</v>
@@ -54386,7 +48702,7 @@
         <v>2020</v>
       </c>
       <c r="B19" s="4">
-        <v>1505.7668298958388</v>
+        <v>1421.0197706412171</v>
       </c>
       <c r="C19">
         <v>1362.1</v>
@@ -54404,7 +48720,7 @@
         <v>2020</v>
       </c>
       <c r="H19" s="4">
-        <v>912.28385342321667</v>
+        <v>1001.2411406049484</v>
       </c>
       <c r="I19">
         <v>834.7</v>
@@ -54413,7 +48729,7 @@
         <v>2020</v>
       </c>
       <c r="K19" s="4">
-        <v>1053.4290711421918</v>
+        <v>1005.9567923640484</v>
       </c>
       <c r="L19">
         <v>1039.5999999999999</v>
@@ -54454,7 +48770,7 @@
       </c>
       <c r="B23" s="4" cm="1">
         <f t="array" ref="B23:B40">B2:B19</f>
-        <v>1749.0462848769303</v>
+        <v>1716.4334476389881</v>
       </c>
       <c r="C23" s="4" cm="1">
         <f t="array" ref="C23:C40">E2:E19</f>
@@ -54462,11 +48778,11 @@
       </c>
       <c r="D23" s="4" cm="1">
         <f t="array" ref="D23:D40">H2:H19</f>
-        <v>1142.3482696273682</v>
+        <v>1028.14713879792</v>
       </c>
       <c r="E23" s="4" cm="1">
         <f t="array" ref="E23:E40">K2:K19</f>
-        <v>1593.8016967556446</v>
+        <v>1573.0190767197876</v>
       </c>
       <c r="F23">
         <v>1897.6</v>
@@ -54486,16 +48802,16 @@
         <v>2003</v>
       </c>
       <c r="B24" s="4">
-        <v>1554.5474245844464</v>
+        <v>1495.3477586044467</v>
       </c>
       <c r="C24" s="4">
         <v>248.28889640178761</v>
       </c>
       <c r="D24" s="4">
-        <v>946.46291366323021</v>
+        <v>976.31955730309369</v>
       </c>
       <c r="E24" s="4">
-        <v>1601.0668585104715</v>
+        <v>1597.3040166677811</v>
       </c>
       <c r="F24">
         <v>1542.69999999999</v>
@@ -54515,16 +48831,16 @@
         <v>2004</v>
       </c>
       <c r="B25" s="4">
-        <v>1605.3645841582415</v>
+        <v>1598.785708395257</v>
       </c>
       <c r="C25" s="4">
         <v>184.25537972196105</v>
       </c>
       <c r="D25" s="4">
-        <v>1014.8882686194825</v>
+        <v>969.52398367193041</v>
       </c>
       <c r="E25" s="4">
-        <v>1566.7126989032943</v>
+        <v>1600.4882304162356</v>
       </c>
       <c r="F25">
         <v>1476.3</v>
@@ -54544,16 +48860,16 @@
         <v>2005</v>
       </c>
       <c r="B26" s="4">
-        <v>1349.2581465860865</v>
+        <v>1379.3710498911464</v>
       </c>
       <c r="C26" s="4">
         <v>353.17138061874493</v>
       </c>
       <c r="D26" s="4">
-        <v>798.78225488250951</v>
+        <v>889.0776867781201</v>
       </c>
       <c r="E26" s="4">
-        <v>1633.6355360672883</v>
+        <v>1638.1830915839259</v>
       </c>
       <c r="F26">
         <v>1237.5999999999999</v>
@@ -54573,16 +48889,16 @@
         <v>2006</v>
       </c>
       <c r="B27" s="4">
-        <v>1449.6143632626131</v>
+        <v>1436.0742778745366</v>
       </c>
       <c r="C27" s="4">
         <v>343.23514527187535</v>
       </c>
       <c r="D27" s="4">
-        <v>781.65782103417746</v>
+        <v>812.31673660451281</v>
       </c>
       <c r="E27" s="4">
-        <v>1655.0357995460026</v>
+        <v>1674.1511034330429</v>
       </c>
       <c r="F27">
         <v>1739.9</v>
@@ -54602,16 +48918,16 @@
         <v>2007</v>
       </c>
       <c r="B28" s="4">
-        <v>1818.5900345213984</v>
+        <v>1867.3336554573864</v>
       </c>
       <c r="C28" s="4">
         <v>146.71849063378701</v>
       </c>
       <c r="D28" s="4">
-        <v>1216.0045286353475</v>
+        <v>983.25453699482807</v>
       </c>
       <c r="E28" s="4">
-        <v>1626.9474102172796</v>
+        <v>1594.0544811792086</v>
       </c>
       <c r="F28">
         <v>1802.4</v>
@@ -54631,16 +48947,16 @@
         <v>2008</v>
       </c>
       <c r="B29" s="4">
-        <v>1742.5380486732936</v>
+        <v>1536.2818368944984</v>
       </c>
       <c r="C29" s="4">
         <v>144.51043833448247</v>
       </c>
       <c r="D29" s="4">
-        <v>1154.7247747013685</v>
+        <v>1215.8385713100911</v>
       </c>
       <c r="E29" s="4">
-        <v>1018.0230175365045</v>
+        <v>905.40250124420629</v>
       </c>
       <c r="F29">
         <v>1697.1</v>
@@ -54660,16 +48976,16 @@
         <v>2009</v>
       </c>
       <c r="B30" s="4">
-        <v>1695.7925395300172</v>
+        <v>1598.3144264095672</v>
       </c>
       <c r="C30" s="4">
         <v>187.56745817091786</v>
       </c>
       <c r="D30" s="4">
-        <v>1267.2526456698665</v>
+        <v>1307.3353940657976</v>
       </c>
       <c r="E30" s="4">
-        <v>911.54617452439118</v>
+        <v>862.52967596532756</v>
       </c>
       <c r="F30">
         <v>1744.5</v>
@@ -54689,16 +49005,16 @@
         <v>2010</v>
       </c>
       <c r="B31" s="4">
-        <v>1303.1128720852726</v>
+        <v>1412.133378048276</v>
       </c>
       <c r="C31" s="4">
         <v>267.05734094587501</v>
       </c>
       <c r="D31" s="4">
-        <v>926.09567727875628</v>
+        <v>1028.14713879792</v>
       </c>
       <c r="E31" s="4">
-        <v>916.53326920057452</v>
+        <v>993.34940202262635</v>
       </c>
       <c r="F31">
         <v>1408.2</v>
@@ -54718,16 +49034,16 @@
         <v>2011</v>
       </c>
       <c r="B32" s="4">
-        <v>1345.6593727370139</v>
+        <v>1393.5363480182486</v>
       </c>
       <c r="C32" s="4">
         <v>335.5069622243102</v>
       </c>
       <c r="D32" s="4">
-        <v>757.02140269206177</v>
+        <v>819.79406774811514</v>
       </c>
       <c r="E32" s="4">
-        <v>1053.4290711421918</v>
+        <v>1090.9777626847892</v>
       </c>
       <c r="F32">
         <v>1351</v>
@@ -54747,16 +49063,16 @@
         <v>2012</v>
       </c>
       <c r="B33" s="4">
-        <v>1658.264469622997</v>
+        <v>1547.8947954245805</v>
       </c>
       <c r="C33" s="4">
         <v>174.31914437509138</v>
       </c>
       <c r="D33" s="4">
-        <v>961.6943725265894</v>
+        <v>946.76078316846395</v>
       </c>
       <c r="E33" s="4">
-        <v>1058.6269154361207</v>
+        <v>1031.4847481460931</v>
       </c>
       <c r="F33">
         <v>1484.1</v>
@@ -54776,16 +49092,16 @@
         <v>2013</v>
       </c>
       <c r="B34" s="4">
-        <v>1797.8058111335558</v>
+        <v>1837.8973577154559</v>
       </c>
       <c r="C34" s="4">
         <v>116.90978459317806</v>
       </c>
       <c r="D34" s="4">
-        <v>1279.9145088009539</v>
+        <v>1096.6550207866449</v>
       </c>
       <c r="E34" s="4">
-        <v>988.86945281799353</v>
+        <v>961.24854467842454</v>
       </c>
       <c r="F34">
         <v>1824.2</v>
@@ -54805,16 +49121,16 @@
         <v>2014</v>
       </c>
       <c r="B35" s="4">
-        <v>1913.6584939456261</v>
+        <v>1897.6209851528788</v>
       </c>
       <c r="C35" s="4">
         <v>51.772241763699249</v>
       </c>
       <c r="D35" s="4">
-        <v>1648.5034551788337</v>
+        <v>1532.6508640549739</v>
       </c>
       <c r="E35" s="4">
-        <v>887.26885361043469</v>
+        <v>756.95321454801592</v>
       </c>
       <c r="F35">
         <v>1986.1</v>
@@ -54834,16 +49150,16 @@
         <v>2015</v>
       </c>
       <c r="B36" s="4">
-        <v>1450.2939865736346</v>
+        <v>1635.9439813347828</v>
       </c>
       <c r="C36" s="4">
         <v>28.587692621003544</v>
       </c>
       <c r="D36" s="4">
-        <v>1589.5159945841101</v>
+        <v>1702.3922866444746</v>
       </c>
       <c r="E36" s="4">
-        <v>570.54860692025022</v>
+        <v>677.41718111985926</v>
       </c>
       <c r="F36">
         <v>1462.3</v>
@@ -54863,16 +49179,16 @@
         <v>2016</v>
       </c>
       <c r="B37" s="4">
-        <v>1424.1330338746106</v>
+        <v>1616.2630694875297</v>
       </c>
       <c r="C37" s="4">
         <v>122.42991534143903</v>
       </c>
       <c r="D37" s="4">
-        <v>1260.2921376328095</v>
+        <v>1280.9790600918675</v>
       </c>
       <c r="E37" s="4">
-        <v>728.02709973884214</v>
+        <v>874.87950918820411</v>
       </c>
       <c r="F37">
         <v>1331</v>
@@ -54892,16 +49208,16 @@
         <v>2018</v>
       </c>
       <c r="B38" s="4">
-        <v>1619.1916970203386</v>
+        <v>1558.4587440893811</v>
       </c>
       <c r="C38" s="4">
         <v>204.12785041570032</v>
       </c>
       <c r="D38" s="4">
-        <v>1000.4626271000648</v>
+        <v>988.55075609473397</v>
       </c>
       <c r="E38" s="4">
-        <v>1008.5588266323894</v>
+        <v>1011.9031478924898</v>
       </c>
       <c r="F38">
         <v>1579.3</v>
@@ -54921,16 +49237,16 @@
         <v>2019</v>
       </c>
       <c r="B39" s="4">
-        <v>1358.6620069180744</v>
+        <v>1392.5894089218107</v>
       </c>
       <c r="C39" s="4">
         <v>304.59423003404902</v>
       </c>
       <c r="D39" s="4">
-        <v>802.29449394925211</v>
+        <v>881.21527648156109</v>
       </c>
       <c r="E39" s="4">
-        <v>1039.4396412981057</v>
+        <v>1062.1975201459047</v>
       </c>
       <c r="F39">
         <v>1414.9</v>
@@ -54950,16 +49266,16 @@
         <v>2020</v>
       </c>
       <c r="B40" s="4">
-        <v>1505.7668298958388</v>
+        <v>1421.0197706412171</v>
       </c>
       <c r="C40" s="4">
         <v>214.06408576256996</v>
       </c>
       <c r="D40" s="4">
-        <v>912.28385342321667</v>
+        <v>1001.2411406049484</v>
       </c>
       <c r="E40" s="4">
-        <v>1053.4290711421918</v>
+        <v>1005.9567923640484</v>
       </c>
       <c r="F40">
         <v>1362.1</v>
@@ -54988,7 +49304,7 @@
       </c>
       <c r="B43" s="15">
         <f>SUM(B23:E23)</f>
-        <v>4677.1798140294695</v>
+        <v>4509.5832259262224</v>
       </c>
       <c r="C43" s="15">
         <f>SUM(F23:I23)</f>
@@ -55000,8 +49316,8 @@
         <v>2003</v>
       </c>
       <c r="B44" s="15">
-        <f t="shared" ref="B44:C60" si="0">SUM(B24:E24)</f>
-        <v>4350.3660931599361</v>
+        <f t="shared" ref="B44:B60" si="0">SUM(B24:E24)</f>
+        <v>4317.2602289771094</v>
       </c>
       <c r="C44" s="15">
         <f t="shared" ref="C44:C60" si="1">SUM(F24:I24)</f>
@@ -55014,7 +49330,7 @@
       </c>
       <c r="B45" s="15">
         <f t="shared" si="0"/>
-        <v>4371.2209314029797</v>
+        <v>4353.0533022053842</v>
       </c>
       <c r="C45" s="15">
         <f t="shared" si="1"/>
@@ -55027,7 +49343,7 @@
       </c>
       <c r="B46" s="15">
         <f t="shared" si="0"/>
-        <v>4134.8473181546287</v>
+        <v>4259.8032088719374</v>
       </c>
       <c r="C46" s="15">
         <f t="shared" si="1"/>
@@ -55040,7 +49356,7 @@
       </c>
       <c r="B47" s="15">
         <f t="shared" si="0"/>
-        <v>4229.5431291146688</v>
+        <v>4265.7772631839671</v>
       </c>
       <c r="C47" s="15">
         <f t="shared" si="1"/>
@@ -55053,7 +49369,7 @@
       </c>
       <c r="B48" s="15">
         <f t="shared" si="0"/>
-        <v>4808.2604640078125</v>
+        <v>4591.3611642652104</v>
       </c>
       <c r="C48" s="15">
         <f t="shared" si="1"/>
@@ -55066,7 +49382,7 @@
       </c>
       <c r="B49" s="15">
         <f t="shared" si="0"/>
-        <v>4059.7962792456487</v>
+        <v>3802.0333477832783</v>
       </c>
       <c r="C49" s="15">
         <f t="shared" si="1"/>
@@ -55079,7 +49395,7 @@
       </c>
       <c r="B50" s="15">
         <f t="shared" si="0"/>
-        <v>4062.1588178951924</v>
+        <v>3955.7469546116099</v>
       </c>
       <c r="C50" s="15">
         <f t="shared" si="1"/>
@@ -55092,7 +49408,7 @@
       </c>
       <c r="B51" s="15">
         <f t="shared" si="0"/>
-        <v>3412.7991595104781</v>
+        <v>3700.6872598146974</v>
       </c>
       <c r="C51" s="15">
         <f t="shared" si="1"/>
@@ -55105,7 +49421,7 @@
       </c>
       <c r="B52" s="15">
         <f t="shared" si="0"/>
-        <v>3491.6168087955775</v>
+        <v>3639.8151406754632</v>
       </c>
       <c r="C52" s="15">
         <f t="shared" si="1"/>
@@ -55118,7 +49434,7 @@
       </c>
       <c r="B53" s="15">
         <f t="shared" si="0"/>
-        <v>3852.9049019607983</v>
+        <v>3700.459471114229</v>
       </c>
       <c r="C53" s="15">
         <f t="shared" si="1"/>
@@ -55131,7 +49447,7 @@
       </c>
       <c r="B54" s="15">
         <f t="shared" si="0"/>
-        <v>4183.4995573456818</v>
+        <v>4012.7107077737032</v>
       </c>
       <c r="C54" s="15">
         <f t="shared" si="1"/>
@@ -55144,7 +49460,7 @@
       </c>
       <c r="B55" s="15">
         <f t="shared" si="0"/>
-        <v>4501.203044498594</v>
+        <v>4238.9973055195678</v>
       </c>
       <c r="C55" s="15">
         <f t="shared" si="1"/>
@@ -55157,7 +49473,7 @@
       </c>
       <c r="B56" s="15">
         <f t="shared" si="0"/>
-        <v>3638.9462806989982</v>
+        <v>4044.3411417201205</v>
       </c>
       <c r="C56" s="15">
         <f t="shared" si="1"/>
@@ -55170,7 +49486,7 @@
       </c>
       <c r="B57" s="15">
         <f t="shared" si="0"/>
-        <v>3534.8821865877012</v>
+        <v>3894.5515541090399</v>
       </c>
       <c r="C57" s="15">
         <f t="shared" si="1"/>
@@ -55183,7 +49499,7 @@
       </c>
       <c r="B58" s="15">
         <f t="shared" si="0"/>
-        <v>3832.3410011684928</v>
+        <v>3763.0404984923052</v>
       </c>
       <c r="C58" s="15">
         <f t="shared" si="1"/>
@@ -55196,7 +49512,7 @@
       </c>
       <c r="B59" s="15">
         <f t="shared" si="0"/>
-        <v>3504.9903721994815</v>
+        <v>3640.5964355833257</v>
       </c>
       <c r="C59" s="15">
         <f t="shared" si="1"/>
@@ -55209,7 +49525,7 @@
       </c>
       <c r="B60" s="15">
         <f t="shared" si="0"/>
-        <v>3685.5438402238169</v>
+        <v>3642.2817893727838</v>
       </c>
       <c r="C60" s="15">
         <f t="shared" si="1"/>
@@ -55227,7 +49543,7 @@
   <dimension ref="A1:J56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -55282,7 +49598,7 @@
       </c>
       <c r="C3" s="15">
         <f>Estimated!B23</f>
-        <v>1749.0462848769303</v>
+        <v>1716.4334476389881</v>
       </c>
       <c r="D3" s="15">
         <f>Estimated!C23</f>
@@ -55290,11 +49606,11 @@
       </c>
       <c r="E3" s="15">
         <f>Estimated!D23</f>
-        <v>1142.3482696273682</v>
+        <v>1028.14713879792</v>
       </c>
       <c r="F3" s="15">
         <f>Estimated!E23</f>
-        <v>1593.8016967556446</v>
+        <v>1573.0190767197876</v>
       </c>
       <c r="G3" s="15"/>
       <c r="H3" s="15"/>
@@ -55351,7 +49667,7 @@
       </c>
       <c r="C6" s="15">
         <f>Estimated!B24</f>
-        <v>1554.5474245844464</v>
+        <v>1495.3477586044467</v>
       </c>
       <c r="D6" s="15">
         <f>Estimated!C24</f>
@@ -55359,11 +49675,11 @@
       </c>
       <c r="E6" s="15">
         <f>Estimated!D24</f>
-        <v>946.46291366323021</v>
+        <v>976.31955730309369</v>
       </c>
       <c r="F6" s="15">
         <f>Estimated!E24</f>
-        <v>1601.0668585104715</v>
+        <v>1597.3040166677811</v>
       </c>
       <c r="G6" s="15"/>
       <c r="H6" s="15"/>
@@ -55420,7 +49736,7 @@
       </c>
       <c r="C9" s="15">
         <f>Estimated!B25</f>
-        <v>1605.3645841582415</v>
+        <v>1598.785708395257</v>
       </c>
       <c r="D9" s="15">
         <f>Estimated!C25</f>
@@ -55428,11 +49744,11 @@
       </c>
       <c r="E9" s="15">
         <f>Estimated!D25</f>
-        <v>1014.8882686194825</v>
+        <v>969.52398367193041</v>
       </c>
       <c r="F9" s="15">
         <f>Estimated!E25</f>
-        <v>1566.7126989032943</v>
+        <v>1600.4882304162356</v>
       </c>
       <c r="G9" s="15"/>
       <c r="H9" s="15"/>
@@ -55489,7 +49805,7 @@
       </c>
       <c r="C12" s="15">
         <f>Estimated!B26</f>
-        <v>1349.2581465860865</v>
+        <v>1379.3710498911464</v>
       </c>
       <c r="D12" s="15">
         <f>Estimated!C26</f>
@@ -55497,11 +49813,11 @@
       </c>
       <c r="E12" s="15">
         <f>Estimated!D26</f>
-        <v>798.78225488250951</v>
+        <v>889.0776867781201</v>
       </c>
       <c r="F12" s="15">
         <f>Estimated!E26</f>
-        <v>1633.6355360672883</v>
+        <v>1638.1830915839259</v>
       </c>
       <c r="G12" s="15"/>
       <c r="H12" s="15"/>
@@ -55558,7 +49874,7 @@
       </c>
       <c r="C15" s="15">
         <f>Estimated!B27</f>
-        <v>1449.6143632626131</v>
+        <v>1436.0742778745366</v>
       </c>
       <c r="D15" s="15">
         <f>Estimated!C27</f>
@@ -55566,11 +49882,11 @@
       </c>
       <c r="E15" s="15">
         <f>Estimated!D27</f>
-        <v>781.65782103417746</v>
+        <v>812.31673660451281</v>
       </c>
       <c r="F15" s="15">
         <f>Estimated!E27</f>
-        <v>1655.0357995460026</v>
+        <v>1674.1511034330429</v>
       </c>
       <c r="G15" s="15"/>
       <c r="H15" s="15"/>
@@ -55627,7 +49943,7 @@
       </c>
       <c r="C18" s="15">
         <f>Estimated!B28</f>
-        <v>1818.5900345213984</v>
+        <v>1867.3336554573864</v>
       </c>
       <c r="D18" s="15">
         <f>Estimated!C28</f>
@@ -55635,11 +49951,11 @@
       </c>
       <c r="E18" s="15">
         <f>Estimated!D28</f>
-        <v>1216.0045286353475</v>
+        <v>983.25453699482807</v>
       </c>
       <c r="F18" s="15">
         <f>Estimated!E28</f>
-        <v>1626.9474102172796</v>
+        <v>1594.0544811792086</v>
       </c>
       <c r="G18" s="15"/>
       <c r="H18" s="15"/>
@@ -55696,7 +50012,7 @@
       </c>
       <c r="C21" s="15">
         <f>Estimated!B29</f>
-        <v>1742.5380486732936</v>
+        <v>1536.2818368944984</v>
       </c>
       <c r="D21" s="15">
         <f>Estimated!C29</f>
@@ -55704,11 +50020,11 @@
       </c>
       <c r="E21" s="15">
         <f>Estimated!D29</f>
-        <v>1154.7247747013685</v>
+        <v>1215.8385713100911</v>
       </c>
       <c r="F21" s="15">
         <f>Estimated!E29</f>
-        <v>1018.0230175365045</v>
+        <v>905.40250124420629</v>
       </c>
       <c r="G21" s="15"/>
       <c r="H21" s="15"/>
@@ -55765,7 +50081,7 @@
       </c>
       <c r="C24" s="15">
         <f>Estimated!B30</f>
-        <v>1695.7925395300172</v>
+        <v>1598.3144264095672</v>
       </c>
       <c r="D24" s="15">
         <f>Estimated!C30</f>
@@ -55773,11 +50089,11 @@
       </c>
       <c r="E24" s="15">
         <f>Estimated!D30</f>
-        <v>1267.2526456698665</v>
+        <v>1307.3353940657976</v>
       </c>
       <c r="F24" s="15">
         <f>Estimated!E30</f>
-        <v>911.54617452439118</v>
+        <v>862.52967596532756</v>
       </c>
       <c r="G24" s="15"/>
       <c r="H24" s="15"/>
@@ -55834,7 +50150,7 @@
       </c>
       <c r="C27" s="15">
         <f>Estimated!B31</f>
-        <v>1303.1128720852726</v>
+        <v>1412.133378048276</v>
       </c>
       <c r="D27" s="15">
         <f>Estimated!C31</f>
@@ -55842,11 +50158,11 @@
       </c>
       <c r="E27" s="15">
         <f>Estimated!D31</f>
-        <v>926.09567727875628</v>
+        <v>1028.14713879792</v>
       </c>
       <c r="F27" s="15">
         <f>Estimated!E31</f>
-        <v>916.53326920057452</v>
+        <v>993.34940202262635</v>
       </c>
       <c r="G27" s="15"/>
       <c r="H27" s="15"/>
@@ -55903,7 +50219,7 @@
       </c>
       <c r="C30" s="15">
         <f>Estimated!B32</f>
-        <v>1345.6593727370139</v>
+        <v>1393.5363480182486</v>
       </c>
       <c r="D30" s="15">
         <f>Estimated!C32</f>
@@ -55911,11 +50227,11 @@
       </c>
       <c r="E30" s="15">
         <f>Estimated!D32</f>
-        <v>757.02140269206177</v>
+        <v>819.79406774811514</v>
       </c>
       <c r="F30" s="15">
         <f>Estimated!E32</f>
-        <v>1053.4290711421918</v>
+        <v>1090.9777626847892</v>
       </c>
       <c r="G30" s="15"/>
       <c r="H30" s="15"/>
@@ -55972,7 +50288,7 @@
       </c>
       <c r="C33" s="15">
         <f>Estimated!B33</f>
-        <v>1658.264469622997</v>
+        <v>1547.8947954245805</v>
       </c>
       <c r="D33" s="15">
         <f>Estimated!C33</f>
@@ -55980,11 +50296,11 @@
       </c>
       <c r="E33" s="15">
         <f>Estimated!D33</f>
-        <v>961.6943725265894</v>
+        <v>946.76078316846395</v>
       </c>
       <c r="F33" s="15">
         <f>Estimated!E33</f>
-        <v>1058.6269154361207</v>
+        <v>1031.4847481460931</v>
       </c>
       <c r="G33" s="15"/>
       <c r="H33" s="15"/>
@@ -56041,7 +50357,7 @@
       </c>
       <c r="C36" s="15">
         <f>Estimated!B34</f>
-        <v>1797.8058111335558</v>
+        <v>1837.8973577154559</v>
       </c>
       <c r="D36" s="15">
         <f>Estimated!C34</f>
@@ -56049,11 +50365,11 @@
       </c>
       <c r="E36" s="15">
         <f>Estimated!D34</f>
-        <v>1279.9145088009539</v>
+        <v>1096.6550207866449</v>
       </c>
       <c r="F36" s="15">
         <f>Estimated!E34</f>
-        <v>988.86945281799353</v>
+        <v>961.24854467842454</v>
       </c>
       <c r="G36" s="15"/>
       <c r="H36" s="15"/>
@@ -56110,7 +50426,7 @@
       </c>
       <c r="C39" s="15">
         <f>Estimated!B35</f>
-        <v>1913.6584939456261</v>
+        <v>1897.6209851528788</v>
       </c>
       <c r="D39" s="15">
         <f>Estimated!C35</f>
@@ -56118,11 +50434,11 @@
       </c>
       <c r="E39" s="15">
         <f>Estimated!D35</f>
-        <v>1648.5034551788337</v>
+        <v>1532.6508640549739</v>
       </c>
       <c r="F39" s="15">
         <f>Estimated!E35</f>
-        <v>887.26885361043469</v>
+        <v>756.95321454801592</v>
       </c>
       <c r="G39" s="15"/>
       <c r="H39" s="15"/>
@@ -56179,7 +50495,7 @@
       </c>
       <c r="C42" s="15">
         <f>Estimated!B36</f>
-        <v>1450.2939865736346</v>
+        <v>1635.9439813347828</v>
       </c>
       <c r="D42" s="15">
         <f>Estimated!C36</f>
@@ -56187,11 +50503,11 @@
       </c>
       <c r="E42" s="15">
         <f>Estimated!D36</f>
-        <v>1589.5159945841101</v>
+        <v>1702.3922866444746</v>
       </c>
       <c r="F42" s="15">
         <f>Estimated!E36</f>
-        <v>570.54860692025022</v>
+        <v>677.41718111985926</v>
       </c>
       <c r="G42" s="15"/>
       <c r="H42" s="15"/>
@@ -56248,7 +50564,7 @@
       </c>
       <c r="C45" s="15">
         <f>Estimated!B37</f>
-        <v>1424.1330338746106</v>
+        <v>1616.2630694875297</v>
       </c>
       <c r="D45" s="15">
         <f>Estimated!C37</f>
@@ -56256,11 +50572,11 @@
       </c>
       <c r="E45" s="15">
         <f>Estimated!D37</f>
-        <v>1260.2921376328095</v>
+        <v>1280.9790600918675</v>
       </c>
       <c r="F45" s="15">
         <f>Estimated!E37</f>
-        <v>728.02709973884214</v>
+        <v>874.87950918820411</v>
       </c>
       <c r="G45" s="15"/>
       <c r="H45" s="15"/>
@@ -56317,7 +50633,7 @@
       </c>
       <c r="C48" s="15">
         <f>Estimated!B38</f>
-        <v>1619.1916970203386</v>
+        <v>1558.4587440893811</v>
       </c>
       <c r="D48" s="15">
         <f>Estimated!C38</f>
@@ -56325,11 +50641,11 @@
       </c>
       <c r="E48" s="15">
         <f>Estimated!D38</f>
-        <v>1000.4626271000648</v>
+        <v>988.55075609473397</v>
       </c>
       <c r="F48" s="15">
         <f>Estimated!E38</f>
-        <v>1008.5588266323894</v>
+        <v>1011.9031478924898</v>
       </c>
       <c r="G48" s="15"/>
       <c r="H48" s="15"/>
@@ -56386,7 +50702,7 @@
       </c>
       <c r="C51" s="15">
         <f>Estimated!B39</f>
-        <v>1358.6620069180744</v>
+        <v>1392.5894089218107</v>
       </c>
       <c r="D51" s="15">
         <f>Estimated!C39</f>
@@ -56394,11 +50710,11 @@
       </c>
       <c r="E51" s="15">
         <f>Estimated!D39</f>
-        <v>802.29449394925211</v>
+        <v>881.21527648156109</v>
       </c>
       <c r="F51" s="15">
         <f>Estimated!E39</f>
-        <v>1039.4396412981057</v>
+        <v>1062.1975201459047</v>
       </c>
       <c r="G51" s="15"/>
       <c r="H51" s="15"/>
@@ -56455,7 +50771,7 @@
       </c>
       <c r="C54" s="15">
         <f>Estimated!B40</f>
-        <v>1505.7668298958388</v>
+        <v>1421.0197706412171</v>
       </c>
       <c r="D54" s="15">
         <f>Estimated!C40</f>
@@ -56463,11 +50779,11 @@
       </c>
       <c r="E54" s="15">
         <f>Estimated!D40</f>
-        <v>912.28385342321667</v>
+        <v>1001.2411406049484</v>
       </c>
       <c r="F54" s="15">
         <f>Estimated!E40</f>
-        <v>1053.4290711421918</v>
+        <v>1005.9567923640484</v>
       </c>
       <c r="G54" s="15"/>
       <c r="H54" s="15"/>
@@ -56515,10 +50831,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD4748E0-0CAC-4E7D-AD4E-428827F73B5A}">
-  <dimension ref="B1:F9"/>
+  <dimension ref="B1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B1" sqref="B1:G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -56527,59 +50843,67 @@
     <col min="3" max="3" width="9.125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23.75" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B1" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="24" t="s">
         <v>80</v>
       </c>
-      <c r="D1" s="35" t="s">
+      <c r="D1" s="26" t="s">
         <v>69</v>
       </c>
       <c r="E1" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="F1" s="29" t="s">
+      <c r="F1" s="23" t="s">
         <v>77</v>
       </c>
+      <c r="G1" s="23" t="s">
+        <v>82</v>
+      </c>
     </row>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B2" s="23" t="s">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="31">
+      <c r="C2" s="34">
         <v>2</v>
       </c>
       <c r="D2" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="E2" s="26">
-        <v>0.85</v>
-      </c>
-      <c r="F2" s="26">
-        <v>0.83</v>
+      <c r="E2" s="28">
+        <v>0.77</v>
+      </c>
+      <c r="F2" s="28">
+        <v>0.74</v>
+      </c>
+      <c r="G2" s="39" t="s">
+        <v>83</v>
       </c>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B3" s="24"/>
-      <c r="C3" s="32"/>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3" s="32"/>
+      <c r="C3" s="36"/>
       <c r="D3" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
+        <v>74</v>
+      </c>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="40"/>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B4" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="C4" s="33">
+      <c r="C4" s="25">
         <v>1</v>
       </c>
-      <c r="D4" s="36" t="s">
+      <c r="D4" s="27" t="s">
         <v>71</v>
       </c>
       <c r="E4" s="19">
@@ -56588,81 +50912,188 @@
       <c r="F4" s="19">
         <v>0.85</v>
       </c>
+      <c r="G4" s="19"/>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="23" t="s">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B5" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="31">
+      <c r="C5" s="38">
+        <v>1</v>
+      </c>
+      <c r="D5" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="E5" s="38">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="F5" s="38">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="G5" s="38"/>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B6" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="38">
+        <v>1</v>
+      </c>
+      <c r="D6" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="E6" s="38">
+        <v>0.73</v>
+      </c>
+      <c r="F6" s="38">
+        <v>0.72</v>
+      </c>
+      <c r="G6" s="38"/>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="B10" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="C10" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="D10" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="F10" s="23" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B11" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="34">
+        <v>2</v>
+      </c>
+      <c r="D11" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="E11" s="28">
+        <v>0.85</v>
+      </c>
+      <c r="F11" s="28">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B12" s="32"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="E12" s="29"/>
+      <c r="F12" s="29"/>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B13" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="C13" s="25">
+        <v>1</v>
+      </c>
+      <c r="D13" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="E13" s="19">
+        <v>0.86</v>
+      </c>
+      <c r="F13" s="19">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B14" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" s="34">
         <v>3</v>
       </c>
-      <c r="D5" s="20" t="s">
+      <c r="D14" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="E5" s="26">
+      <c r="E14" s="28">
         <v>0.73</v>
       </c>
-      <c r="F5" s="26">
+      <c r="F14" s="28">
         <v>0.68</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="25"/>
-      <c r="C6" s="34"/>
-      <c r="D6" s="22" t="s">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B15" s="33"/>
+      <c r="C15" s="35"/>
+      <c r="D15" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="E6" s="27"/>
-      <c r="F6" s="27"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="30"/>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="24"/>
-      <c r="C7" s="32"/>
-      <c r="D7" s="21" t="s">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B16" s="32"/>
+      <c r="C16" s="36"/>
+      <c r="D16" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="29"/>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="25" t="s">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B17" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="31">
+      <c r="C17" s="34">
         <v>2</v>
       </c>
-      <c r="D8" s="20" t="s">
+      <c r="D17" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="E8" s="27">
+      <c r="E17" s="30">
         <v>0.87</v>
       </c>
-      <c r="F8" s="27">
+      <c r="F17" s="30">
         <v>0.85</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="24"/>
-      <c r="C9" s="32"/>
-      <c r="D9" s="21" t="s">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B18" s="32"/>
+      <c r="C18" s="36"/>
+      <c r="D18" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="E9" s="28"/>
-      <c r="F9" s="28"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="29"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="17">
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="E14:E16"/>
+    <mergeCell ref="F14:F16"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F17:F18"/>
     <mergeCell ref="F2:F3"/>
-    <mergeCell ref="F5:F7"/>
-    <mergeCell ref="F8:F9"/>
     <mergeCell ref="B2:B3"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="E5:E7"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="C5:C7"/>
     <mergeCell ref="C2:C3"/>
-    <mergeCell ref="C8:C9"/>
     <mergeCell ref="E2:E3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Analysis/DWR dataset.xlsx
+++ b/Analysis/DWR dataset.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\armen\Desktop\Drought Indicators - SoCal\Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB8A718A-E9FC-4229-A002-6D915C001AC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF4068BA-F77B-4EAD-B5BD-A4931E2E6838}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{3AC0043D-D22B-384A-9C5D-258A6195F46F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{3AC0043D-D22B-384A-9C5D-258A6195F46F}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="2" r:id="rId1"/>
@@ -19,9 +19,12 @@
     <sheet name="Variables to predict supply" sheetId="22" r:id="rId4"/>
     <sheet name="Old Estimated" sheetId="26" r:id="rId5"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId6"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId6"/>
+    <pivotCache cacheId="1" r:id="rId7"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -425,13 +428,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -440,23 +440,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -20252,6 +20255,242 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="San Joaquin"/>
+      <sheetName val="Main"/>
+      <sheetName val="Sheet4"/>
+      <sheetName val="Groundwater Changes"/>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4">
+        <row r="55">
+          <cell r="F55">
+            <v>1285.26990125263</v>
+          </cell>
+        </row>
+        <row r="56">
+          <cell r="D56">
+            <v>1905.7</v>
+          </cell>
+          <cell r="E56">
+            <v>2002</v>
+          </cell>
+          <cell r="F56">
+            <v>1370.2724723844501</v>
+          </cell>
+        </row>
+        <row r="57">
+          <cell r="D57">
+            <v>1764.9</v>
+          </cell>
+          <cell r="E57">
+            <v>2003</v>
+          </cell>
+          <cell r="F57">
+            <v>1423.4864168941001</v>
+          </cell>
+        </row>
+        <row r="58">
+          <cell r="D58">
+            <v>1460.9</v>
+          </cell>
+          <cell r="E58">
+            <v>2004</v>
+          </cell>
+          <cell r="F58">
+            <v>1431.0623287364399</v>
+          </cell>
+        </row>
+        <row r="59">
+          <cell r="D59">
+            <v>1541.8</v>
+          </cell>
+          <cell r="E59">
+            <v>2005</v>
+          </cell>
+          <cell r="F59">
+            <v>1441.7325031702801</v>
+          </cell>
+        </row>
+        <row r="60">
+          <cell r="D60">
+            <v>1736</v>
+          </cell>
+          <cell r="E60">
+            <v>2006</v>
+          </cell>
+          <cell r="F60">
+            <v>1507.6631919691799</v>
+          </cell>
+        </row>
+        <row r="61">
+          <cell r="D61">
+            <v>1639.4</v>
+          </cell>
+          <cell r="E61">
+            <v>2007</v>
+          </cell>
+          <cell r="F61">
+            <v>1229.0772857943</v>
+          </cell>
+        </row>
+        <row r="62">
+          <cell r="D62">
+            <v>1444.8</v>
+          </cell>
+          <cell r="E62">
+            <v>2008</v>
+          </cell>
+          <cell r="F62">
+            <v>1218.3566506550301</v>
+          </cell>
+        </row>
+        <row r="63">
+          <cell r="D63">
+            <v>1471.9</v>
+          </cell>
+          <cell r="E63">
+            <v>2009</v>
+          </cell>
+          <cell r="F63">
+            <v>1033.74010940076</v>
+          </cell>
+        </row>
+        <row r="64">
+          <cell r="D64">
+            <v>1563.1</v>
+          </cell>
+          <cell r="E64">
+            <v>2010</v>
+          </cell>
+          <cell r="F64">
+            <v>1391.1965292135999</v>
+          </cell>
+        </row>
+        <row r="65">
+          <cell r="D65">
+            <v>1707.7</v>
+          </cell>
+          <cell r="E65">
+            <v>2011</v>
+          </cell>
+          <cell r="F65">
+            <v>1466.7826690939</v>
+          </cell>
+        </row>
+        <row r="66">
+          <cell r="D66">
+            <v>1616.2</v>
+          </cell>
+          <cell r="E66">
+            <v>2012</v>
+          </cell>
+          <cell r="F66">
+            <v>1188.7441888757</v>
+          </cell>
+        </row>
+        <row r="67">
+          <cell r="D67">
+            <v>1465.4</v>
+          </cell>
+          <cell r="E67">
+            <v>2013</v>
+          </cell>
+          <cell r="F67">
+            <v>1074.17417233164</v>
+          </cell>
+        </row>
+        <row r="68">
+          <cell r="D68">
+            <v>982</v>
+          </cell>
+          <cell r="E68">
+            <v>2014</v>
+          </cell>
+          <cell r="F68">
+            <v>724.42341480242999</v>
+          </cell>
+        </row>
+        <row r="69">
+          <cell r="D69">
+            <v>742.8</v>
+          </cell>
+          <cell r="E69">
+            <v>2015</v>
+          </cell>
+          <cell r="F69">
+            <v>630.12868684041302</v>
+          </cell>
+        </row>
+        <row r="70">
+          <cell r="D70">
+            <v>1153.9000000000001</v>
+          </cell>
+          <cell r="E70">
+            <v>2016</v>
+          </cell>
+          <cell r="F70">
+            <v>1033.9189508859299</v>
+          </cell>
+        </row>
+        <row r="71">
+          <cell r="E71">
+            <v>2017</v>
+          </cell>
+          <cell r="F71">
+            <v>1443.0802288351599</v>
+          </cell>
+        </row>
+        <row r="72">
+          <cell r="D72">
+            <v>1676.19999999999</v>
+          </cell>
+          <cell r="E72">
+            <v>2018</v>
+          </cell>
+          <cell r="F72">
+            <v>1175.8280971535701</v>
+          </cell>
+        </row>
+        <row r="73">
+          <cell r="D73">
+            <v>1576.7</v>
+          </cell>
+          <cell r="E73">
+            <v>2019</v>
+          </cell>
+          <cell r="F73">
+            <v>1412.49080587768</v>
+          </cell>
+        </row>
+        <row r="74">
+          <cell r="D74">
+            <v>1500.1</v>
+          </cell>
+          <cell r="E74">
+            <v>2020</v>
+          </cell>
+          <cell r="F74">
+            <v>1062.82233055286</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Alvar Escriva-Bou" refreshedDate="45310.305185532408" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="2160" xr:uid="{F1A21F05-90F0-E443-A8B6-838C62381EC9}">
   <cacheSource type="worksheet">
@@ -35451,7 +35690,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9B178C02-2BA3-324A-9135-D4798CB5CEEE}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="11">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9B178C02-2BA3-324A-9135-D4798CB5CEEE}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="11">
   <location ref="A3:N23" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="5">
     <pivotField axis="axisCol" showAll="0">
@@ -36082,7 +36321,7 @@
   <dimension ref="A1:AJ25"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E41" sqref="E41"/>
+      <selection activeCell="W1" sqref="W1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -38570,7 +38809,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3884484-B4C4-4693-9156-05161D7CEA1B}">
   <dimension ref="A1:M81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="T70" sqref="T70"/>
     </sheetView>
   </sheetViews>
@@ -40260,7 +40499,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43E32FDD-B1AE-4DA0-87A1-4493D24942E5}">
   <dimension ref="A1:J56"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
@@ -41585,10 +41824,10 @@
       </c>
     </row>
     <row r="2" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="26">
+      <c r="C2" s="25">
         <v>2</v>
       </c>
       <c r="D2" s="12" t="s">
@@ -41600,19 +41839,19 @@
       <c r="F2" s="28">
         <v>0.74</v>
       </c>
-      <c r="G2" s="22" t="s">
+      <c r="G2" s="31" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B3" s="25"/>
+      <c r="B3" s="24"/>
       <c r="C3" s="27"/>
       <c r="D3" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="23"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="32"/>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B4" s="10" t="s">
@@ -41691,10 +41930,10 @@
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B11" s="24" t="s">
+      <c r="B11" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="26">
+      <c r="C11" s="25">
         <v>2</v>
       </c>
       <c r="D11" s="12" t="s">
@@ -41708,13 +41947,13 @@
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B12" s="25"/>
+      <c r="B12" s="24"/>
       <c r="C12" s="27"/>
       <c r="D12" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="E12" s="29"/>
-      <c r="F12" s="29"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="30"/>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
@@ -41734,10 +41973,10 @@
       </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B14" s="24" t="s">
+      <c r="B14" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="C14" s="26">
+      <c r="C14" s="25">
         <v>3</v>
       </c>
       <c r="D14" s="12" t="s">
@@ -41751,59 +41990,51 @@
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B15" s="30"/>
-      <c r="C15" s="31"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="26"/>
       <c r="D15" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="E15" s="32"/>
-      <c r="F15" s="32"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="29"/>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B16" s="25"/>
+      <c r="B16" s="24"/>
       <c r="C16" s="27"/>
       <c r="D16" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="E16" s="29"/>
-      <c r="F16" s="29"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="30"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B17" s="30" t="s">
+      <c r="B17" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="26">
+      <c r="C17" s="25">
         <v>2</v>
       </c>
       <c r="D17" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="E17" s="32">
+      <c r="E17" s="29">
         <v>0.87</v>
       </c>
-      <c r="F17" s="32">
+      <c r="F17" s="29">
         <v>0.85</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B18" s="25"/>
+      <c r="B18" s="24"/>
       <c r="C18" s="27"/>
       <c r="D18" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="E18" s="29"/>
-      <c r="F18" s="29"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="C14:C16"/>
-    <mergeCell ref="E14:E16"/>
-    <mergeCell ref="F14:F16"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F17:F18"/>
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="C11:C12"/>
@@ -41813,6 +42044,14 @@
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="E2:E3"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="E14:E16"/>
+    <mergeCell ref="F14:F16"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F17:F18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
